--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3017096.662793729</v>
+        <v>-3018956.670721932</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.598410267</v>
+        <v>5362323.598410266</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.07624026590776</v>
+        <v>305.3102796803863</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.8493297879133</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2594796375887</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>216.4953881842849</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G11" t="n">
-        <v>335.1249171548103</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>26.86878149913301</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201118</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>133.6155215347106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.10962166677308</v>
+        <v>111.3078169498595</v>
       </c>
       <c r="C12" t="n">
-        <v>95.28493700522148</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>80.22151847230668</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>58.44629703045008</v>
+        <v>58.44629703045006</v>
       </c>
       <c r="H12" t="n">
-        <v>98.00300894892986</v>
+        <v>20.57944696583558</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S12" t="n">
-        <v>66.88705533198583</v>
+        <v>66.88705533198582</v>
       </c>
       <c r="T12" t="n">
-        <v>138.9994855055886</v>
+        <v>116.8012902225022</v>
       </c>
       <c r="U12" t="n">
-        <v>148.4208689038236</v>
+        <v>148.4208689038235</v>
       </c>
       <c r="V12" t="n">
         <v>155.377025166331</v>
@@ -1515,7 +1515,7 @@
         <v>128.3494232203832</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>128.2591337942101</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>102.408418198843</v>
       </c>
       <c r="C13" t="n">
-        <v>89.82325911553357</v>
+        <v>89.82325911553356</v>
       </c>
       <c r="D13" t="n">
-        <v>10.25253388109716</v>
+        <v>71.19191103511808</v>
       </c>
       <c r="E13" t="n">
-        <v>69.01040066347491</v>
+        <v>69.0104006634749</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983699</v>
+        <v>67.99748603983697</v>
       </c>
       <c r="G13" t="n">
-        <v>89.33195188606993</v>
+        <v>89.33195188606992</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407168</v>
+        <v>73.81919917407167</v>
       </c>
       <c r="I13" t="n">
-        <v>40.87309622974155</v>
+        <v>40.87309622974153</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>209.0994363534967</v>
       </c>
       <c r="X13" t="n">
-        <v>148.2860934059429</v>
+        <v>87.34671625192291</v>
       </c>
       <c r="Y13" t="n">
         <v>141.1610913690005</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.8193074426172</v>
+        <v>305.3102796803863</v>
       </c>
       <c r="C14" t="n">
         <v>287.8493297879133</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5068080891675</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>329.4524837586172</v>
       </c>
       <c r="G14" t="n">
         <v>335.1249171548103</v>
       </c>
       <c r="H14" t="n">
-        <v>233.8441915268611</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913301</v>
+        <v>26.86878149913304</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201118</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6155215347106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7017502545638</v>
+        <v>68.87374054963168</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>271.8174067343188</v>
@@ -1692,7 +1692,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.645080455401</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1704,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I15" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S15" t="n">
         <v>144.3106173150801</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2248522055965</v>
+        <v>194.2248522055958</v>
       </c>
       <c r="U15" t="n">
         <v>225.8444308869178</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.408418198843</v>
+        <v>102.4084181988431</v>
       </c>
       <c r="C16" t="n">
-        <v>28.88388196151197</v>
+        <v>89.82325911553359</v>
       </c>
       <c r="D16" t="n">
-        <v>71.1919110351181</v>
+        <v>71.19191103511811</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347491</v>
+        <v>69.01040066347493</v>
       </c>
       <c r="F16" t="n">
-        <v>67.99748603983699</v>
+        <v>67.997486039837</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606993</v>
+        <v>89.33195188606994</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407168</v>
+        <v>12.87982202005006</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974155</v>
+        <v>40.87309622974156</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361166</v>
+        <v>44.31880839361169</v>
       </c>
       <c r="S16" t="n">
         <v>125.0622420268079</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.4635783425403</v>
+        <v>230.4635783425402</v>
       </c>
       <c r="C17" t="n">
-        <v>213.0026284500673</v>
+        <v>213.0026284500672</v>
       </c>
       <c r="D17" t="n">
-        <v>202.4127782997427</v>
+        <v>202.4127782997426</v>
       </c>
       <c r="E17" t="n">
-        <v>229.6601067513215</v>
+        <v>229.6601067513214</v>
       </c>
       <c r="F17" t="n">
-        <v>254.6057824207712</v>
+        <v>254.6057824207711</v>
       </c>
       <c r="G17" t="n">
-        <v>260.2782158169643</v>
+        <v>260.2782158169642</v>
       </c>
       <c r="H17" t="n">
-        <v>158.9974901890151</v>
+        <v>158.997490189015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58.76882019686462</v>
+        <v>58.76882019686451</v>
       </c>
       <c r="U17" t="n">
-        <v>98.85504891671781</v>
+        <v>98.85504891671769</v>
       </c>
       <c r="V17" t="n">
-        <v>175.4819951491947</v>
+        <v>175.4819951491945</v>
       </c>
       <c r="W17" t="n">
-        <v>196.9707053964728</v>
+        <v>196.9707053964727</v>
       </c>
       <c r="X17" t="n">
-        <v>217.4608373575288</v>
+        <v>217.4608373575287</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.9676753351133</v>
+        <v>233.9676753351132</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883158</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1941,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I18" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S18" t="n">
-        <v>144.3106173150801</v>
+        <v>144.3106173150798</v>
       </c>
       <c r="T18" t="n">
         <v>194.2248522055965</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.56171686099705</v>
+        <v>27.56171686099694</v>
       </c>
       <c r="C19" t="n">
-        <v>14.97655777768759</v>
+        <v>14.97655777768747</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.48525054822393</v>
+        <v>14.48525054822382</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S19" t="n">
-        <v>50.21554068896192</v>
+        <v>202.4858040099022</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68163076145879</v>
+        <v>70.39651901671884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2516403298021</v>
+        <v>155.2547187300563</v>
       </c>
       <c r="V19" t="n">
-        <v>99.86738000288776</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>134.2527350156506</v>
       </c>
       <c r="X19" t="n">
-        <v>73.43939206809691</v>
+        <v>73.43939206809679</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.31439003115455</v>
+        <v>66.31439003115443</v>
       </c>
     </row>
     <row r="20">
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8698590135443</v>
+        <v>135.8698590135435</v>
       </c>
       <c r="H21" t="n">
         <v>98.00300894892986</v>
       </c>
       <c r="I21" t="n">
-        <v>38.65884129492205</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S21" t="n">
         <v>144.3106173150801</v>
@@ -2242,13 +2242,13 @@
         <v>14.97655777768747</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>14.48525054822382</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023545964</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S22" t="n">
-        <v>50.21554068896181</v>
+        <v>50.21554068896182</v>
       </c>
       <c r="T22" t="n">
         <v>222.6667823376592</v>
       </c>
       <c r="U22" t="n">
-        <v>133.9813770088617</v>
+        <v>286.2516403298021</v>
       </c>
       <c r="V22" t="n">
         <v>99.86738000288764</v>
       </c>
       <c r="W22" t="n">
-        <v>134.2527350156506</v>
+        <v>155.5260767368451</v>
       </c>
       <c r="X22" t="n">
-        <v>74.68884644579406</v>
+        <v>73.43939206809679</v>
       </c>
       <c r="Y22" t="n">
         <v>66.31439003115443</v>
@@ -2415,7 +2415,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I24" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S24" t="n">
         <v>144.3106173150801</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.606434098514862</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21554068896181</v>
+        <v>50.21554068896182</v>
       </c>
       <c r="T25" t="n">
         <v>70.39651901671884</v>
       </c>
       <c r="U25" t="n">
-        <v>133.9813770088617</v>
+        <v>286.2516403298021</v>
       </c>
       <c r="V25" t="n">
-        <v>109.3101147757739</v>
+        <v>99.86738000288764</v>
       </c>
       <c r="W25" t="n">
         <v>134.2527350156506</v>
       </c>
       <c r="X25" t="n">
-        <v>73.43939206809679</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>66.31439003115443</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I26" t="n">
-        <v>24.31268534657012</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944829</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T26" t="n">
         <v>131.0594253821477</v>
@@ -2652,7 +2652,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.85232204628015</v>
+        <v>99.85232204628016</v>
       </c>
       <c r="C28" t="n">
-        <v>87.26716296297069</v>
+        <v>87.2671629629707</v>
       </c>
       <c r="D28" t="n">
-        <v>68.63581488255521</v>
+        <v>68.63581488255522</v>
       </c>
       <c r="E28" t="n">
-        <v>66.45430451091202</v>
+        <v>66.45430451091204</v>
       </c>
       <c r="F28" t="n">
-        <v>65.4413898872741</v>
+        <v>65.44138988727411</v>
       </c>
       <c r="G28" t="n">
-        <v>86.77585573350704</v>
+        <v>86.77585573350706</v>
       </c>
       <c r="H28" t="n">
-        <v>71.2631030215088</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I28" t="n">
-        <v>38.31700007717866</v>
+        <v>38.31700007717868</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76271224104877</v>
+        <v>41.7627122410488</v>
       </c>
       <c r="S28" t="n">
         <v>122.506145874245</v>
@@ -2810,7 +2810,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I29" t="n">
-        <v>24.31268534657012</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944829</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T29" t="n">
         <v>131.0594253821477</v>
@@ -2889,7 +2889,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I30" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S30" t="n">
         <v>144.3106173150801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.85232204628015</v>
+        <v>99.85232204628016</v>
       </c>
       <c r="C31" t="n">
-        <v>87.26716296297069</v>
+        <v>87.2671629629707</v>
       </c>
       <c r="D31" t="n">
-        <v>68.63581488255521</v>
+        <v>68.63581488255522</v>
       </c>
       <c r="E31" t="n">
-        <v>66.45430451091202</v>
+        <v>66.45430451091204</v>
       </c>
       <c r="F31" t="n">
-        <v>65.4413898872741</v>
+        <v>65.44138988727411</v>
       </c>
       <c r="G31" t="n">
-        <v>86.77585573350704</v>
+        <v>86.77585573350706</v>
       </c>
       <c r="H31" t="n">
-        <v>71.2631030215088</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717866</v>
+        <v>38.31700007717868</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76271224104877</v>
+        <v>41.7627122410488</v>
       </c>
       <c r="S31" t="n">
         <v>122.506145874245</v>
@@ -3047,7 +3047,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657011</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944828</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T32" t="n">
         <v>131.0594253821477</v>
@@ -3086,7 +3086,7 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V32" t="n">
-        <v>247.7726003344777</v>
+        <v>247.7726003344778</v>
       </c>
       <c r="W32" t="n">
         <v>269.2613105817559</v>
@@ -3095,7 +3095,7 @@
         <v>289.7514425428119</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.2582805203964</v>
+        <v>306.2582805203965</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I33" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S33" t="n">
         <v>144.3106173150801</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628014</v>
+        <v>99.85232204628016</v>
       </c>
       <c r="C34" t="n">
-        <v>87.26716296297067</v>
+        <v>87.2671629629707</v>
       </c>
       <c r="D34" t="n">
-        <v>68.6358148825552</v>
+        <v>68.63581488255522</v>
       </c>
       <c r="E34" t="n">
-        <v>66.45430451091201</v>
+        <v>66.45430451091204</v>
       </c>
       <c r="F34" t="n">
-        <v>65.44138988727408</v>
+        <v>65.44138988727411</v>
       </c>
       <c r="G34" t="n">
-        <v>86.77585573350702</v>
+        <v>86.77585573350704</v>
       </c>
       <c r="H34" t="n">
-        <v>71.26310302150878</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717865</v>
+        <v>38.31700007717868</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76271224104876</v>
+        <v>41.7627122410488</v>
       </c>
       <c r="S34" t="n">
         <v>122.506145874245</v>
       </c>
       <c r="T34" t="n">
-        <v>142.687124202002</v>
+        <v>142.6871242020021</v>
       </c>
       <c r="U34" t="n">
-        <v>206.2719821941449</v>
+        <v>206.271982194145</v>
       </c>
       <c r="V34" t="n">
-        <v>172.1579851881708</v>
+        <v>172.1579851881709</v>
       </c>
       <c r="W34" t="n">
-        <v>206.5433402009338</v>
+        <v>206.5433402009339</v>
       </c>
       <c r="X34" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6049952164376</v>
+        <v>138.6049952164377</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.96506333287813</v>
+        <v>41.96506333287816</v>
       </c>
       <c r="T35" t="n">
         <v>106.7467400355776</v>
       </c>
       <c r="U35" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V35" t="n">
         <v>223.4599149879076</v>
@@ -3363,7 +3363,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I36" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S36" t="n">
         <v>144.3106173150801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.53963669970999</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C37" t="n">
-        <v>62.95447761640052</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D37" t="n">
-        <v>44.32312953598505</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E37" t="n">
-        <v>42.14161916434186</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F37" t="n">
-        <v>41.12870454070394</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G37" t="n">
-        <v>62.46317038693687</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H37" t="n">
-        <v>46.95041767493863</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I37" t="n">
-        <v>14.0043147306085</v>
+        <v>14.00431473060853</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45002689447861</v>
+        <v>17.45002689447865</v>
       </c>
       <c r="S37" t="n">
-        <v>98.19346052767486</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T37" t="n">
         <v>118.3744388554319</v>
@@ -3487,7 +3487,7 @@
         <v>182.2306548543637</v>
       </c>
       <c r="X37" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y37" t="n">
         <v>114.2923098698675</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.96506333287813</v>
+        <v>41.96506333287816</v>
       </c>
       <c r="T38" t="n">
         <v>106.7467400355776</v>
       </c>
       <c r="U38" t="n">
-        <v>146.8329687554307</v>
+        <v>146.8329687554308</v>
       </c>
       <c r="V38" t="n">
         <v>223.4599149879076</v>
@@ -3600,7 +3600,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I39" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S39" t="n">
         <v>144.3106173150801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.53963669970999</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C40" t="n">
-        <v>62.95447761640052</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D40" t="n">
-        <v>44.32312953598505</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E40" t="n">
-        <v>42.14161916434186</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F40" t="n">
-        <v>41.12870454070394</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G40" t="n">
-        <v>62.46317038693687</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H40" t="n">
-        <v>46.95041767493863</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I40" t="n">
-        <v>14.0043147306085</v>
+        <v>14.00431473060853</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45002689447861</v>
+        <v>17.45002689447865</v>
       </c>
       <c r="S40" t="n">
-        <v>98.19346052767486</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T40" t="n">
         <v>118.3744388554319</v>
@@ -3724,7 +3724,7 @@
         <v>182.2306548543637</v>
       </c>
       <c r="X40" t="n">
-        <v>121.4173119068098</v>
+        <v>121.4173119068099</v>
       </c>
       <c r="Y40" t="n">
         <v>114.2923098698675</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>278.4414981812534</v>
+        <v>278.4414981812532</v>
       </c>
       <c r="C41" t="n">
-        <v>260.9805482887804</v>
+        <v>260.9805482887803</v>
       </c>
       <c r="D41" t="n">
-        <v>250.3906981384558</v>
+        <v>250.3906981384556</v>
       </c>
       <c r="E41" t="n">
-        <v>277.6380265900346</v>
+        <v>277.6380265900344</v>
       </c>
       <c r="F41" t="n">
-        <v>302.5837022594843</v>
+        <v>302.5837022594841</v>
       </c>
       <c r="G41" t="n">
-        <v>308.2561356556774</v>
+        <v>308.2561356556772</v>
       </c>
       <c r="H41" t="n">
-        <v>206.9754100277282</v>
+        <v>206.975410027728</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.96506333287827</v>
+        <v>41.96506333287812</v>
       </c>
       <c r="T41" t="n">
-        <v>106.7467400355777</v>
+        <v>106.7467400355775</v>
       </c>
       <c r="U41" t="n">
-        <v>146.8329687554309</v>
+        <v>146.8329687554307</v>
       </c>
       <c r="V41" t="n">
-        <v>223.4599149879077</v>
+        <v>223.4599149879076</v>
       </c>
       <c r="W41" t="n">
-        <v>244.9486252351858</v>
+        <v>244.9486252351857</v>
       </c>
       <c r="X41" t="n">
-        <v>265.4387571962419</v>
+        <v>265.4387571962417</v>
       </c>
       <c r="Y41" t="n">
-        <v>281.9455951738264</v>
+        <v>281.9455951738263</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I42" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S42" t="n">
         <v>144.3106173150801</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.53963669971013</v>
+        <v>75.53963669970997</v>
       </c>
       <c r="C43" t="n">
-        <v>62.95447761640067</v>
+        <v>62.95447761640051</v>
       </c>
       <c r="D43" t="n">
-        <v>44.32312953598519</v>
+        <v>44.32312953598503</v>
       </c>
       <c r="E43" t="n">
-        <v>42.141619164342</v>
+        <v>42.14161916434185</v>
       </c>
       <c r="F43" t="n">
-        <v>41.12870454070408</v>
+        <v>41.12870454070392</v>
       </c>
       <c r="G43" t="n">
-        <v>62.46317038693701</v>
+        <v>62.46317038693685</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95041767493877</v>
+        <v>46.95041767493861</v>
       </c>
       <c r="I43" t="n">
-        <v>14.00431473060864</v>
+        <v>14.00431473060849</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45002689447875</v>
+        <v>17.4500268944786</v>
       </c>
       <c r="S43" t="n">
-        <v>98.193460527675</v>
+        <v>98.19346052767486</v>
       </c>
       <c r="T43" t="n">
-        <v>118.374438855432</v>
+        <v>118.3744388554319</v>
       </c>
       <c r="U43" t="n">
-        <v>181.9592968475749</v>
+        <v>181.9592968475748</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8452998416008</v>
+        <v>147.8452998416007</v>
       </c>
       <c r="W43" t="n">
-        <v>182.2306548543638</v>
+        <v>182.2306548543637</v>
       </c>
       <c r="X43" t="n">
-        <v>121.41731190681</v>
+        <v>121.4173119068098</v>
       </c>
       <c r="Y43" t="n">
-        <v>114.2923098698676</v>
+        <v>114.2923098698675</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F44" t="n">
-        <v>302.5837022594842</v>
+        <v>302.5837022594841</v>
       </c>
       <c r="G44" t="n">
         <v>308.2561356556773</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.96506333287817</v>
+        <v>41.96506333287815</v>
       </c>
       <c r="T44" t="n">
         <v>106.7467400355776</v>
@@ -4040,7 +4040,7 @@
         <v>244.9486252351857</v>
       </c>
       <c r="X44" t="n">
-        <v>265.4387571962418</v>
+        <v>265.4387571962417</v>
       </c>
       <c r="Y44" t="n">
         <v>281.9455951738263</v>
@@ -4074,7 +4074,7 @@
         <v>98.00300894892986</v>
       </c>
       <c r="I45" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614590037</v>
       </c>
       <c r="S45" t="n">
         <v>144.3106173150801</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.53963669971003</v>
+        <v>75.53963669971</v>
       </c>
       <c r="C46" t="n">
-        <v>62.95447761640057</v>
+        <v>62.95447761640054</v>
       </c>
       <c r="D46" t="n">
-        <v>44.32312953598509</v>
+        <v>44.32312953598506</v>
       </c>
       <c r="E46" t="n">
-        <v>42.1416191643419</v>
+        <v>42.14161916434188</v>
       </c>
       <c r="F46" t="n">
-        <v>41.12870454070398</v>
+        <v>41.12870454070395</v>
       </c>
       <c r="G46" t="n">
-        <v>62.46317038693691</v>
+        <v>62.46317038693688</v>
       </c>
       <c r="H46" t="n">
-        <v>46.95041767493867</v>
+        <v>46.95041767493864</v>
       </c>
       <c r="I46" t="n">
-        <v>14.00431473060854</v>
+        <v>14.00431473060852</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45002689447865</v>
+        <v>17.45002689447863</v>
       </c>
       <c r="S46" t="n">
-        <v>98.1934605276749</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T46" t="n">
         <v>118.3744388554319</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>681.583902969792</v>
+        <v>878.0930175549266</v>
       </c>
       <c r="C11" t="n">
-        <v>681.583902969792</v>
+        <v>587.3361187792566</v>
       </c>
       <c r="D11" t="n">
-        <v>401.5238225277832</v>
+        <v>587.3361187792566</v>
       </c>
       <c r="E11" t="n">
-        <v>401.5238225277832</v>
+        <v>368.6539084921002</v>
       </c>
       <c r="F11" t="n">
-        <v>401.5238225277832</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="G11" t="n">
-        <v>63.01380519969194</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="H11" t="n">
-        <v>63.01380519969194</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="I11" t="n">
         <v>35.8736218672343</v>
       </c>
       <c r="J11" t="n">
-        <v>88.0647709608369</v>
+        <v>255.4704199811899</v>
       </c>
       <c r="K11" t="n">
-        <v>424.261610944247</v>
+        <v>384.4299415587662</v>
       </c>
       <c r="L11" t="n">
-        <v>621.1490627001128</v>
+        <v>581.317393314632</v>
       </c>
       <c r="M11" t="n">
-        <v>1065.085133307137</v>
+        <v>832.0620569876971</v>
       </c>
       <c r="N11" t="n">
-        <v>1324.500916162741</v>
+        <v>1091.4778398433</v>
       </c>
       <c r="O11" t="n">
-        <v>1556.124622500299</v>
+        <v>1323.101546180859</v>
       </c>
       <c r="P11" t="n">
-        <v>1719.309096196612</v>
+        <v>1486.286019877172</v>
       </c>
       <c r="Q11" t="n">
-        <v>1793.681093361715</v>
+        <v>1770.84985779558</v>
       </c>
       <c r="R11" t="n">
         <v>1793.681093361715</v>
       </c>
       <c r="S11" t="n">
-        <v>1724.151957167764</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="T11" t="n">
-        <v>1589.18678390038</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="U11" t="n">
-        <v>1589.18678390038</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="V11" t="n">
-        <v>1336.329514721551</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="W11" t="n">
-        <v>1336.329514721551</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="X11" t="n">
-        <v>1041.069374625213</v>
+        <v>1498.420953265377</v>
       </c>
       <c r="Y11" t="n">
-        <v>729.1356608141427</v>
+        <v>1186.487239454307</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>666.6514394580735</v>
+        <v>744.857057622815</v>
       </c>
       <c r="C12" t="n">
-        <v>570.4040283416881</v>
+        <v>570.404028341688</v>
       </c>
       <c r="D12" t="n">
         <v>421.4696186804368</v>
       </c>
       <c r="E12" t="n">
-        <v>340.437781839723</v>
+        <v>262.2321636749813</v>
       </c>
       <c r="F12" t="n">
-        <v>193.903223866608</v>
+        <v>115.6976057018663</v>
       </c>
       <c r="G12" t="n">
-        <v>134.8665601994867</v>
+        <v>56.66094203474499</v>
       </c>
       <c r="H12" t="n">
         <v>35.8736218672343</v>
@@ -5118,25 +5118,25 @@
         <v>35.8736218672343</v>
       </c>
       <c r="J12" t="n">
-        <v>48.1404657652259</v>
+        <v>172.9705907522306</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1898832244869</v>
+        <v>272.0914055329723</v>
       </c>
       <c r="L12" t="n">
-        <v>462.7925921206472</v>
+        <v>451.6941144291325</v>
       </c>
       <c r="M12" t="n">
-        <v>906.7286627276716</v>
+        <v>895.6301850361569</v>
       </c>
       <c r="N12" t="n">
-        <v>1156.141552286624</v>
+        <v>1339.566255643181</v>
       </c>
       <c r="O12" t="n">
-        <v>1600.077622893648</v>
+        <v>1545.510527627822</v>
       </c>
       <c r="P12" t="n">
-        <v>1746.032991285784</v>
+        <v>1691.465896019958</v>
       </c>
       <c r="Q12" t="n">
         <v>1793.681093361715</v>
@@ -5148,22 +5148,22 @@
         <v>1717.369158062143</v>
       </c>
       <c r="T12" t="n">
-        <v>1576.965637349427</v>
+        <v>1599.388056827293</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.045567749606</v>
+        <v>1449.467987227471</v>
       </c>
       <c r="V12" t="n">
-        <v>1270.099077682605</v>
+        <v>1292.52149716047</v>
       </c>
       <c r="W12" t="n">
-        <v>1094.067339119145</v>
+        <v>1116.48975859701</v>
       </c>
       <c r="X12" t="n">
-        <v>964.4214570783538</v>
+        <v>986.8438765562187</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.6611583133998</v>
+        <v>857.2891959560064</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.4371844832199</v>
+        <v>542.9921109014227</v>
       </c>
       <c r="C13" t="n">
-        <v>390.7066197200547</v>
+        <v>452.2615461382575</v>
       </c>
       <c r="D13" t="n">
-        <v>380.3505248906636</v>
+        <v>380.3505248906635</v>
       </c>
       <c r="E13" t="n">
-        <v>310.6430494730122</v>
+        <v>310.6430494730121</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398435</v>
+        <v>241.9587201398434</v>
       </c>
       <c r="G13" t="n">
         <v>151.7244253054295</v>
       </c>
       <c r="H13" t="n">
-        <v>77.15957765485203</v>
+        <v>77.15957765485201</v>
       </c>
       <c r="I13" t="n">
         <v>35.8736218672343</v>
       </c>
       <c r="J13" t="n">
-        <v>106.5712959071871</v>
+        <v>106.5712959071876</v>
       </c>
       <c r="K13" t="n">
-        <v>303.2770659414892</v>
+        <v>303.2770659414895</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197776</v>
+        <v>589.0837408197779</v>
       </c>
       <c r="M13" t="n">
-        <v>896.6492882624211</v>
+        <v>896.6492882624214</v>
       </c>
       <c r="N13" t="n">
         <v>1204.158780512782</v>
@@ -5215,13 +5215,13 @@
         <v>1478.028540358914</v>
       </c>
       <c r="P13" t="n">
-        <v>1699.913336220597</v>
+        <v>1699.913336220598</v>
       </c>
       <c r="Q13" t="n">
         <v>1793.681093361715</v>
       </c>
       <c r="R13" t="n">
-        <v>1748.914620236854</v>
+        <v>1748.914620236855</v>
       </c>
       <c r="S13" t="n">
         <v>1622.589123240079</v>
@@ -5230,19 +5230,19 @@
         <v>1475.878799649609</v>
       </c>
       <c r="U13" t="n">
-        <v>1264.941346774146</v>
+        <v>1264.941346774147</v>
       </c>
       <c r="V13" t="n">
-        <v>1088.462476733001</v>
+        <v>1088.462476733002</v>
       </c>
       <c r="W13" t="n">
-        <v>877.2509248607819</v>
+        <v>877.2509248607828</v>
       </c>
       <c r="X13" t="n">
-        <v>727.4669921275063</v>
+        <v>789.0219185457091</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.8800311487179</v>
+        <v>646.4349575669207</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>944.7866304079464</v>
+        <v>1348.943297398779</v>
       </c>
       <c r="C14" t="n">
-        <v>654.0297316322765</v>
+        <v>1058.186398623109</v>
       </c>
       <c r="D14" t="n">
-        <v>654.0297316322765</v>
+        <v>1058.186398623109</v>
       </c>
       <c r="E14" t="n">
-        <v>654.0297316322765</v>
+        <v>750.603764189606</v>
       </c>
       <c r="F14" t="n">
-        <v>654.0297316322765</v>
+        <v>417.82347756474</v>
       </c>
       <c r="G14" t="n">
-        <v>315.5197143041852</v>
+        <v>79.31346023664878</v>
       </c>
       <c r="H14" t="n">
-        <v>79.31346023664877</v>
+        <v>79.31346023664878</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J14" t="n">
-        <v>104.3644259977938</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K14" t="n">
-        <v>554.2279060208232</v>
+        <v>467.2669712789508</v>
       </c>
       <c r="L14" t="n">
-        <v>834.5197698164179</v>
+        <v>1077.639025439762</v>
       </c>
       <c r="M14" t="n">
-        <v>1480.164071505784</v>
+        <v>1328.383689112828</v>
       </c>
       <c r="N14" t="n">
-        <v>1739.579854361387</v>
+        <v>1587.799471968431</v>
       </c>
       <c r="O14" t="n">
-        <v>2348.195740149064</v>
+        <v>1819.423178305989</v>
       </c>
       <c r="P14" t="n">
-        <v>2511.380213845376</v>
+        <v>2301.18837309207</v>
       </c>
       <c r="Q14" t="n">
-        <v>2585.752211010479</v>
+        <v>2585.752211010478</v>
       </c>
       <c r="R14" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="S14" t="n">
-        <v>2539.134709015608</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="T14" t="n">
-        <v>2404.169535748224</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.713222359776</v>
+        <v>2539.09441031094</v>
       </c>
       <c r="V14" t="n">
-        <v>1975.855953180946</v>
+        <v>2539.09441031094</v>
       </c>
       <c r="W14" t="n">
-        <v>1701.292916075574</v>
+        <v>2264.531373205567</v>
       </c>
       <c r="X14" t="n">
-        <v>1406.032775979236</v>
+        <v>1969.271233109229</v>
       </c>
       <c r="Y14" t="n">
-        <v>1094.099062168166</v>
+        <v>1657.337519298159</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.6172836305907</v>
+        <v>956.6172836305906</v>
       </c>
       <c r="C15" t="n">
-        <v>782.1642543494637</v>
+        <v>782.1642543494636</v>
       </c>
       <c r="D15" t="n">
-        <v>633.2298446882124</v>
+        <v>633.2298446882123</v>
       </c>
       <c r="E15" t="n">
         <v>473.9923896827569</v>
@@ -5349,10 +5349,10 @@
         <v>190.2155498777789</v>
       </c>
       <c r="H15" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552648</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J15" t="n">
         <v>189.2702457891875</v>
@@ -5361,25 +5361,25 @@
         <v>550.211645212382</v>
       </c>
       <c r="L15" t="n">
-        <v>924.135215424571</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M15" t="n">
-        <v>1569.779517113937</v>
+        <v>1436.448557385871</v>
       </c>
       <c r="N15" t="n">
-        <v>1819.192406672889</v>
+        <v>1685.861446944823</v>
       </c>
       <c r="O15" t="n">
-        <v>2415.060374741493</v>
+        <v>1891.805718929464</v>
       </c>
       <c r="P15" t="n">
-        <v>2561.015743133628</v>
+        <v>2353.039228275137</v>
       </c>
       <c r="Q15" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="R15" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063507</v>
       </c>
       <c r="S15" t="n">
         <v>2454.146291745245</v>
@@ -5388,7 +5388,7 @@
         <v>2257.959572345653</v>
       </c>
       <c r="U15" t="n">
-        <v>2029.83388458109</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V15" t="n">
         <v>1794.681776349347</v>
@@ -5397,7 +5397,7 @@
         <v>1540.444419621145</v>
       </c>
       <c r="X15" t="n">
-        <v>1332.592919415613</v>
+        <v>1332.592919415612</v>
       </c>
       <c r="Y15" t="n">
         <v>1124.832620650659</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>497.7368395201763</v>
+        <v>497.7368395201762</v>
       </c>
       <c r="C16" t="n">
-        <v>468.5612011752147</v>
+        <v>407.0062747570109</v>
       </c>
       <c r="D16" t="n">
-        <v>396.6501799276206</v>
+        <v>335.0952535094169</v>
       </c>
       <c r="E16" t="n">
-        <v>326.9427045099692</v>
+        <v>265.3877780917655</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751768004</v>
+        <v>196.7034487585968</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0240803423864</v>
+        <v>106.4691539241827</v>
       </c>
       <c r="H16" t="n">
-        <v>93.45923269180892</v>
+        <v>93.45923269180889</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J16" t="n">
-        <v>122.870950944144</v>
+        <v>122.8709509441439</v>
       </c>
       <c r="K16" t="n">
-        <v>319.5767209784458</v>
+        <v>319.5767209784457</v>
       </c>
       <c r="L16" t="n">
-        <v>605.3833958567343</v>
+        <v>605.3833958567341</v>
       </c>
       <c r="M16" t="n">
-        <v>912.9489432993778</v>
+        <v>912.9489432993776</v>
       </c>
       <c r="N16" t="n">
-        <v>1220.458435549739</v>
+        <v>1220.458435549738</v>
       </c>
       <c r="O16" t="n">
         <v>1494.32819539587</v>
@@ -5458,13 +5458,13 @@
         <v>1809.980748398671</v>
       </c>
       <c r="R16" t="n">
-        <v>1765.214275273811</v>
+        <v>1765.21427527381</v>
       </c>
       <c r="S16" t="n">
         <v>1638.888778277035</v>
       </c>
       <c r="T16" t="n">
-        <v>1492.178454686566</v>
+        <v>1492.178454686565</v>
       </c>
       <c r="U16" t="n">
         <v>1281.241001811103</v>
@@ -5476,10 +5476,10 @@
         <v>893.5505798977385</v>
       </c>
       <c r="X16" t="n">
-        <v>743.7666471644627</v>
+        <v>743.7666471644626</v>
       </c>
       <c r="Y16" t="n">
-        <v>601.1796861856743</v>
+        <v>601.1796861856742</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1169.298906679761</v>
       </c>
       <c r="D17" t="n">
-        <v>964.8415548618391</v>
+        <v>964.8415548618395</v>
       </c>
       <c r="E17" t="n">
-        <v>732.8616490524234</v>
+        <v>732.861649052424</v>
       </c>
       <c r="F17" t="n">
-        <v>475.6840910516444</v>
+        <v>475.6840910516451</v>
       </c>
       <c r="G17" t="n">
-        <v>212.7768023476408</v>
+        <v>212.7768023476407</v>
       </c>
       <c r="H17" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="I17" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J17" t="n">
         <v>271.7700750181468</v>
       </c>
       <c r="K17" t="n">
-        <v>721.6335550411764</v>
+        <v>503.7593942337788</v>
       </c>
       <c r="L17" t="n">
-        <v>1332.005609201988</v>
+        <v>700.6468459896446</v>
       </c>
       <c r="M17" t="n">
-        <v>1582.750272875053</v>
+        <v>951.3915096627097</v>
       </c>
       <c r="N17" t="n">
-        <v>1842.166055730657</v>
+        <v>1210.807292518313</v>
       </c>
       <c r="O17" t="n">
-        <v>2073.789762068216</v>
+        <v>1819.423178305989</v>
       </c>
       <c r="P17" t="n">
         <v>2301.18837309207</v>
       </c>
       <c r="Q17" t="n">
-        <v>2585.752211010479</v>
+        <v>2585.752211010478</v>
       </c>
       <c r="R17" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="S17" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="T17" t="n">
-        <v>2549.301400566261</v>
+        <v>2549.30140056626</v>
       </c>
       <c r="U17" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801899</v>
       </c>
       <c r="V17" t="n">
-        <v>2272.193275247158</v>
+        <v>2272.193275247157</v>
       </c>
       <c r="W17" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765871</v>
       </c>
       <c r="X17" t="n">
-        <v>1853.575555293621</v>
+        <v>1853.57555529362</v>
       </c>
       <c r="Y17" t="n">
         <v>1617.244570106637</v>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956.6172836305907</v>
+        <v>956.6172836305906</v>
       </c>
       <c r="C18" t="n">
         <v>782.1642543494636</v>
@@ -5586,37 +5586,37 @@
         <v>190.2155498777789</v>
       </c>
       <c r="H18" t="n">
-        <v>91.22261154552649</v>
+        <v>91.22261154552648</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J18" t="n">
-        <v>64.44012080218279</v>
+        <v>189.2702457891875</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5609355829245</v>
+        <v>550.211645212382</v>
       </c>
       <c r="L18" t="n">
-        <v>710.2955863295093</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M18" t="n">
-        <v>939.240344471096</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N18" t="n">
-        <v>1503.914265719352</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O18" t="n">
-        <v>2099.782233787955</v>
+        <v>1891.805718929464</v>
       </c>
       <c r="P18" t="n">
-        <v>2561.015743133628</v>
+        <v>2353.039228275137</v>
       </c>
       <c r="Q18" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="R18" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063507</v>
       </c>
       <c r="S18" t="n">
         <v>2454.146291745245</v>
@@ -5625,7 +5625,7 @@
         <v>2257.959572345653</v>
       </c>
       <c r="U18" t="n">
-        <v>2029.83388458109</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V18" t="n">
         <v>1794.681776349347</v>
@@ -5634,7 +5634,7 @@
         <v>1540.444419621145</v>
       </c>
       <c r="X18" t="n">
-        <v>1332.592919415613</v>
+        <v>1332.592919415612</v>
       </c>
       <c r="Y18" t="n">
         <v>1124.832620650659</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.93267925359676</v>
+        <v>88.00517422687527</v>
       </c>
       <c r="C19" t="n">
-        <v>66.80484311451839</v>
+        <v>72.87733808779701</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80484311451839</v>
+        <v>72.87733808779701</v>
       </c>
       <c r="E19" t="n">
-        <v>66.80484311451839</v>
+        <v>72.87733808779701</v>
       </c>
       <c r="F19" t="n">
-        <v>66.80484311451839</v>
+        <v>72.87733808779701</v>
       </c>
       <c r="G19" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746993</v>
       </c>
       <c r="H19" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746993</v>
       </c>
       <c r="I19" t="n">
-        <v>52.17327690419118</v>
+        <v>58.24577187746993</v>
       </c>
       <c r="J19" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="K19" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L19" t="n">
-        <v>381.3870690902548</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M19" t="n">
-        <v>612.303290169635</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N19" t="n">
-        <v>843.1634560567325</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O19" t="n">
         <v>1040.383889539601</v>
@@ -5695,28 +5695,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R19" t="n">
-        <v>1079.765698526274</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S19" t="n">
-        <v>1029.042930153585</v>
+        <v>875.234583364756</v>
       </c>
       <c r="T19" t="n">
-        <v>930.3746162531214</v>
+        <v>804.1269883983733</v>
       </c>
       <c r="U19" t="n">
-        <v>641.2315452129172</v>
+        <v>647.3040401861953</v>
       </c>
       <c r="V19" t="n">
-        <v>540.3554037958589</v>
+        <v>392.6195519803084</v>
       </c>
       <c r="W19" t="n">
-        <v>250.9382337588983</v>
+        <v>257.0107287321765</v>
       </c>
       <c r="X19" t="n">
-        <v>176.7570296497095</v>
+        <v>182.8295246229878</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.7727972950079</v>
+        <v>115.8452922682863</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1384.453076831345</v>
+        <v>1384.453076831343</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.298906679762</v>
+        <v>1169.29890667976</v>
       </c>
       <c r="D20" t="n">
-        <v>964.84155486184</v>
+        <v>964.8415548618382</v>
       </c>
       <c r="E20" t="n">
-        <v>732.8616490524246</v>
+        <v>732.8616490524228</v>
       </c>
       <c r="F20" t="n">
-        <v>475.6840910516457</v>
+        <v>475.6840910516439</v>
       </c>
       <c r="G20" t="n">
         <v>212.7768023476407</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J20" t="n">
-        <v>104.3644259977938</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K20" t="n">
-        <v>233.3239475753702</v>
+        <v>400.7295965957231</v>
       </c>
       <c r="L20" t="n">
-        <v>843.696001736182</v>
+        <v>1011.101650756535</v>
       </c>
       <c r="M20" t="n">
-        <v>1094.440665409247</v>
+        <v>1656.7459524459</v>
       </c>
       <c r="N20" t="n">
-        <v>1740.084967098613</v>
+        <v>1916.161735301504</v>
       </c>
       <c r="O20" t="n">
-        <v>2348.70085288629</v>
+        <v>2371.107374348142</v>
       </c>
       <c r="P20" t="n">
-        <v>2534.291848044456</v>
+        <v>2534.291848044455</v>
       </c>
       <c r="Q20" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="R20" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="S20" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="T20" t="n">
-        <v>2549.301400566262</v>
+        <v>2549.30140056626</v>
       </c>
       <c r="U20" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801898</v>
       </c>
       <c r="V20" t="n">
-        <v>2272.193275247158</v>
+        <v>2272.193275247156</v>
       </c>
       <c r="W20" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765871</v>
       </c>
       <c r="X20" t="n">
-        <v>1853.575555293621</v>
+        <v>1853.575555293619</v>
       </c>
       <c r="Y20" t="n">
-        <v>1617.244570106638</v>
+        <v>1617.244570106636</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.6172836305907</v>
+        <v>956.6172836305898</v>
       </c>
       <c r="C21" t="n">
-        <v>782.1642543494637</v>
+        <v>782.1642543494628</v>
       </c>
       <c r="D21" t="n">
-        <v>633.2298446882124</v>
+        <v>633.2298446882115</v>
       </c>
       <c r="E21" t="n">
-        <v>473.9923896827569</v>
+        <v>473.992389682756</v>
       </c>
       <c r="F21" t="n">
-        <v>327.4578317096419</v>
+        <v>327.457831709641</v>
       </c>
       <c r="G21" t="n">
-        <v>190.215549877779</v>
+        <v>190.2155498777789</v>
       </c>
       <c r="H21" t="n">
-        <v>91.22261154552659</v>
+        <v>91.22261154552648</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="J21" t="n">
         <v>189.2702457891875</v>
@@ -5835,13 +5835,13 @@
         <v>550.211645212382</v>
       </c>
       <c r="L21" t="n">
-        <v>729.8143541085423</v>
+        <v>1096.946295958967</v>
       </c>
       <c r="M21" t="n">
-        <v>1375.458655797908</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N21" t="n">
-        <v>1624.871545356861</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O21" t="n">
         <v>1891.805718929464</v>
@@ -5850,31 +5850,31 @@
         <v>2353.039228275137</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209558</v>
       </c>
       <c r="R21" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063507</v>
       </c>
       <c r="S21" t="n">
         <v>2454.146291745245</v>
       </c>
       <c r="T21" t="n">
-        <v>2257.959572345653</v>
+        <v>2257.959572345652</v>
       </c>
       <c r="U21" t="n">
-        <v>2029.83388458109</v>
+        <v>2029.833884581089</v>
       </c>
       <c r="V21" t="n">
-        <v>1794.681776349347</v>
+        <v>1794.681776349346</v>
       </c>
       <c r="W21" t="n">
         <v>1540.444419621145</v>
       </c>
       <c r="X21" t="n">
-        <v>1332.592919415613</v>
+        <v>1332.592919415612</v>
       </c>
       <c r="Y21" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.832620650658</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>385.0117611371214</v>
+        <v>88.00517422687527</v>
       </c>
       <c r="C22" t="n">
-        <v>369.8839249980431</v>
+        <v>72.87733808779701</v>
       </c>
       <c r="D22" t="n">
-        <v>219.7672855857074</v>
+        <v>72.87733808779701</v>
       </c>
       <c r="E22" t="n">
-        <v>219.7672855857074</v>
+        <v>72.87733808779701</v>
       </c>
       <c r="F22" t="n">
-        <v>72.87733808779703</v>
+        <v>72.87733808779701</v>
       </c>
       <c r="G22" t="n">
         <v>58.24577187746993</v>
@@ -5908,19 +5908,19 @@
         <v>58.24577187746993</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419118</v>
+        <v>52.17327690419116</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L22" t="n">
-        <v>381.3870690902548</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M22" t="n">
-        <v>612.303290169635</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N22" t="n">
-        <v>843.1634560567325</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O22" t="n">
         <v>1040.383889539601</v>
@@ -5932,28 +5932,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R22" t="n">
-        <v>1202.737789815875</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S22" t="n">
-        <v>1152.015021443187</v>
+        <v>1029.042930153585</v>
       </c>
       <c r="T22" t="n">
-        <v>927.0990796879754</v>
+        <v>804.1269883983733</v>
       </c>
       <c r="U22" t="n">
-        <v>791.7643554365999</v>
+        <v>514.9839173581692</v>
       </c>
       <c r="V22" t="n">
-        <v>690.8882140195417</v>
+        <v>414.1077759411109</v>
       </c>
       <c r="W22" t="n">
-        <v>555.2793907714097</v>
+        <v>257.0107287321765</v>
       </c>
       <c r="X22" t="n">
-        <v>479.8361115332339</v>
+        <v>182.8295246229878</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.8518791785324</v>
+        <v>115.8452922682863</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1169.298906679762</v>
       </c>
       <c r="D23" t="n">
-        <v>964.8415548618397</v>
+        <v>964.8415548618402</v>
       </c>
       <c r="E23" t="n">
-        <v>732.8616490524241</v>
+        <v>732.8616490524246</v>
       </c>
       <c r="F23" t="n">
-        <v>475.6840910516453</v>
+        <v>475.6840910516457</v>
       </c>
       <c r="G23" t="n">
         <v>212.7768023476407</v>
@@ -5990,22 +5990,22 @@
         <v>271.7700750181468</v>
       </c>
       <c r="K23" t="n">
-        <v>400.7295965957233</v>
+        <v>721.6335550411761</v>
       </c>
       <c r="L23" t="n">
-        <v>1011.101650756535</v>
+        <v>918.5210067970419</v>
       </c>
       <c r="M23" t="n">
-        <v>1269.972230752478</v>
+        <v>1169.265670470107</v>
       </c>
       <c r="N23" t="n">
-        <v>1529.388013608081</v>
+        <v>1428.68145332571</v>
       </c>
       <c r="O23" t="n">
-        <v>2138.003899395758</v>
+        <v>1819.42317830599</v>
       </c>
       <c r="P23" t="n">
-        <v>2301.18837309207</v>
+        <v>2301.188373092071</v>
       </c>
       <c r="Q23" t="n">
         <v>2585.752211010479</v>
@@ -6075,16 +6075,16 @@
         <v>1096.946295958967</v>
       </c>
       <c r="M24" t="n">
-        <v>1361.803002255446</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N24" t="n">
-        <v>1611.215891814399</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O24" t="n">
-        <v>2207.083859883002</v>
+        <v>1891.805718929465</v>
       </c>
       <c r="P24" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275138</v>
       </c>
       <c r="Q24" t="n">
         <v>2608.663845209559</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.7357203339</v>
+        <v>232.4654894772795</v>
       </c>
       <c r="C25" t="n">
-        <v>361.6078841948217</v>
+        <v>217.3376533382012</v>
       </c>
       <c r="D25" t="n">
-        <v>361.6078841948217</v>
+        <v>217.3376533382012</v>
       </c>
       <c r="E25" t="n">
-        <v>213.6947906124286</v>
+        <v>217.3376533382012</v>
       </c>
       <c r="F25" t="n">
-        <v>66.80484311451828</v>
+        <v>70.44770584029087</v>
       </c>
       <c r="G25" t="n">
-        <v>52.17327690419118</v>
+        <v>55.81613962996377</v>
       </c>
       <c r="H25" t="n">
-        <v>52.17327690419118</v>
+        <v>55.81613962996377</v>
       </c>
       <c r="I25" t="n">
-        <v>52.17327690419118</v>
+        <v>55.81613962996377</v>
       </c>
       <c r="J25" t="n">
         <v>52.17327690419118</v>
@@ -6151,13 +6151,13 @@
         <v>172.2297205752297</v>
       </c>
       <c r="L25" t="n">
-        <v>381.3870690902548</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M25" t="n">
-        <v>612.303290169635</v>
+        <v>612.3032901696349</v>
       </c>
       <c r="N25" t="n">
-        <v>843.1634560567325</v>
+        <v>843.1634560567323</v>
       </c>
       <c r="O25" t="n">
         <v>1040.383889539601</v>
@@ -6172,25 +6172,25 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S25" t="n">
-        <v>1152.015021443187</v>
+        <v>1152.015021443186</v>
       </c>
       <c r="T25" t="n">
         <v>1080.907426476804</v>
       </c>
       <c r="U25" t="n">
-        <v>945.5727022254284</v>
+        <v>791.7643554365995</v>
       </c>
       <c r="V25" t="n">
-        <v>835.1584448761619</v>
+        <v>690.8882140195414</v>
       </c>
       <c r="W25" t="n">
-        <v>699.5496216280299</v>
+        <v>555.2793907714093</v>
       </c>
       <c r="X25" t="n">
-        <v>625.3684175188412</v>
+        <v>327.289839873392</v>
       </c>
       <c r="Y25" t="n">
-        <v>404.5758383753111</v>
+        <v>260.3056075186905</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>997.7226848317121</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5243135124654</v>
+        <v>667.5243135124651</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5962114899935</v>
+        <v>331.5962114899931</v>
       </c>
       <c r="H26" t="n">
-        <v>97.97187272807564</v>
+        <v>97.97187272807567</v>
       </c>
       <c r="I26" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J26" t="n">
-        <v>293.0104028151928</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K26" t="n">
-        <v>687.7839307603082</v>
+        <v>421.969924392769</v>
       </c>
       <c r="L26" t="n">
-        <v>884.671382516174</v>
+        <v>884.6713825161753</v>
       </c>
       <c r="M26" t="n">
-        <v>1580.434444347143</v>
+        <v>1580.434444347145</v>
       </c>
       <c r="N26" t="n">
-        <v>2272.823682370611</v>
+        <v>2272.823682370612</v>
       </c>
       <c r="O26" t="n">
-        <v>2881.439568158287</v>
+        <v>2881.439568158288</v>
       </c>
       <c r="P26" t="n">
-        <v>3363.204762944368</v>
+        <v>3363.204762944369</v>
       </c>
       <c r="Q26" t="n">
         <v>3647.768600862777</v>
       </c>
       <c r="R26" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S26" t="n">
         <v>3603.733014173526</v>
@@ -6306,16 +6306,16 @@
         <v>210.5105735862335</v>
       </c>
       <c r="K27" t="n">
-        <v>309.6313883669752</v>
+        <v>571.451973009428</v>
       </c>
       <c r="L27" t="n">
-        <v>838.8204309573672</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M27" t="n">
-        <v>1067.765189098954</v>
+        <v>1457.688885182917</v>
       </c>
       <c r="N27" t="n">
-        <v>1317.178078657906</v>
+        <v>1707.101774741869</v>
       </c>
       <c r="O27" t="n">
         <v>1913.04604672651</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960922</v>
+        <v>562.4586865960921</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385461</v>
+        <v>474.3100371385459</v>
       </c>
       <c r="D28" t="n">
-        <v>404.9809311965711</v>
+        <v>404.980931196571</v>
       </c>
       <c r="E28" t="n">
-        <v>337.8553710845388</v>
+        <v>337.8553710845386</v>
       </c>
       <c r="F28" t="n">
-        <v>271.7529570569891</v>
+        <v>271.752957056989</v>
       </c>
       <c r="G28" t="n">
-        <v>184.1005775281942</v>
+        <v>184.100577528194</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832355</v>
       </c>
       <c r="I28" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J28" t="n">
-        <v>146.6418139322271</v>
+        <v>146.6418139322269</v>
       </c>
       <c r="K28" t="n">
-        <v>345.8781191575662</v>
+        <v>345.8781191575659</v>
       </c>
       <c r="L28" t="n">
-        <v>634.2153292268919</v>
+        <v>634.2153292268913</v>
       </c>
       <c r="M28" t="n">
-        <v>944.3114118605727</v>
+        <v>944.311411860572</v>
       </c>
       <c r="N28" t="n">
-        <v>1254.351439301971</v>
+        <v>1254.35143930197</v>
       </c>
       <c r="O28" t="n">
-        <v>1530.75173433914</v>
+        <v>1530.751734339139</v>
       </c>
       <c r="P28" t="n">
-        <v>1755.167065391861</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q28" t="n">
         <v>1851.465357724015</v>
       </c>
       <c r="R28" t="n">
-        <v>1809.280799904774</v>
+        <v>1809.280799904773</v>
       </c>
       <c r="S28" t="n">
         <v>1685.537218213617</v>
       </c>
       <c r="T28" t="n">
-        <v>1541.408809928767</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U28" t="n">
         <v>1333.053272358923</v>
       </c>
       <c r="V28" t="n">
-        <v>1159.156317623397</v>
+        <v>1159.156317623396</v>
       </c>
       <c r="W28" t="n">
-        <v>950.5266810567973</v>
+        <v>950.5266810567966</v>
       </c>
       <c r="X28" t="n">
-        <v>803.3246636291408</v>
+        <v>803.3246636291401</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3196179559711</v>
+        <v>663.319617955971</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1868.376552566036</v>
+        <v>1868.376552566035</v>
       </c>
       <c r="C29" t="n">
-        <v>1580.201569095986</v>
+        <v>1580.201569095984</v>
       </c>
       <c r="D29" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E29" t="n">
-        <v>997.7226848317124</v>
+        <v>997.722684831711</v>
       </c>
       <c r="F29" t="n">
-        <v>667.5243135124656</v>
+        <v>667.5243135124642</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5962114899935</v>
+        <v>331.5962114899921</v>
       </c>
       <c r="H29" t="n">
-        <v>97.97187272807564</v>
+        <v>97.97187272807567</v>
       </c>
       <c r="I29" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J29" t="n">
-        <v>293.0104028151928</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K29" t="n">
-        <v>592.8800494451298</v>
+        <v>742.8738828382221</v>
       </c>
       <c r="L29" t="n">
-        <v>1203.252103605942</v>
+        <v>1353.245936999034</v>
       </c>
       <c r="M29" t="n">
-        <v>1899.015165436911</v>
+        <v>1603.990600672099</v>
       </c>
       <c r="N29" t="n">
-        <v>2591.404403460378</v>
+        <v>2272.823682370612</v>
       </c>
       <c r="O29" t="n">
-        <v>3200.020289248055</v>
+        <v>2881.439568158288</v>
       </c>
       <c r="P29" t="n">
-        <v>3363.204762944368</v>
+        <v>3363.204762944369</v>
       </c>
       <c r="Q29" t="n">
         <v>3647.768600862777</v>
       </c>
       <c r="R29" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S29" t="n">
-        <v>3603.733014173526</v>
+        <v>3603.733014173525</v>
       </c>
       <c r="T29" t="n">
-        <v>3471.34975621176</v>
+        <v>3471.349756211759</v>
       </c>
       <c r="U29" t="n">
-        <v>3298.475358128931</v>
+        <v>3298.47535812893</v>
       </c>
       <c r="V29" t="n">
-        <v>3048.200004255721</v>
+        <v>3048.20000425572</v>
       </c>
       <c r="W29" t="n">
-        <v>2776.218882455968</v>
+        <v>2776.218882455966</v>
       </c>
       <c r="X29" t="n">
-        <v>2483.540657665249</v>
+        <v>2483.540657665247</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.188859159798</v>
+        <v>2174.188859159796</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6543,16 @@
         <v>210.5105735862335</v>
       </c>
       <c r="K30" t="n">
-        <v>309.6313883669752</v>
+        <v>571.451973009428</v>
       </c>
       <c r="L30" t="n">
-        <v>856.36603911356</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M30" t="n">
-        <v>1085.310797255147</v>
+        <v>1347.131381897599</v>
       </c>
       <c r="N30" t="n">
-        <v>1707.101774741869</v>
+        <v>1596.544271456552</v>
       </c>
       <c r="O30" t="n">
         <v>1913.04604672651</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960923</v>
+        <v>562.4586865960919</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385462</v>
+        <v>474.3100371385457</v>
       </c>
       <c r="D31" t="n">
-        <v>404.9809311965712</v>
+        <v>404.9809311965707</v>
       </c>
       <c r="E31" t="n">
-        <v>337.8553710845389</v>
+        <v>337.8553710845384</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569893</v>
+        <v>271.7529570569887</v>
       </c>
       <c r="G31" t="n">
-        <v>184.1005775281943</v>
+        <v>184.1005775281938</v>
       </c>
       <c r="H31" t="n">
         <v>112.1176451832358</v>
@@ -6619,16 +6619,16 @@
         <v>73.41360470123713</v>
       </c>
       <c r="J31" t="n">
-        <v>146.641813932227</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K31" t="n">
-        <v>345.8781191575661</v>
+        <v>345.8781191575662</v>
       </c>
       <c r="L31" t="n">
         <v>634.2153292268918</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605724</v>
+        <v>944.3114118605727</v>
       </c>
       <c r="N31" t="n">
         <v>1254.351439301971</v>
@@ -6658,13 +6658,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W31" t="n">
-        <v>950.5266810567971</v>
+        <v>950.5266810567966</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291406</v>
+        <v>803.3246636291401</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3196179559712</v>
+        <v>663.3196179559708</v>
       </c>
     </row>
     <row r="32">
@@ -6692,40 +6692,40 @@
         <v>331.596211489993</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807562</v>
+        <v>97.97187272807567</v>
       </c>
       <c r="I32" t="n">
         <v>73.41360470123713</v>
       </c>
       <c r="J32" t="n">
-        <v>293.0104028151928</v>
+        <v>293.0104028151927</v>
       </c>
       <c r="K32" t="n">
-        <v>742.8738828382222</v>
+        <v>742.8738828382221</v>
       </c>
       <c r="L32" t="n">
         <v>1353.245936999034</v>
       </c>
       <c r="M32" t="n">
-        <v>2013.407899515008</v>
+        <v>1603.990600672099</v>
       </c>
       <c r="N32" t="n">
-        <v>2272.823682370611</v>
+        <v>2272.823682370612</v>
       </c>
       <c r="O32" t="n">
-        <v>2881.439568158287</v>
+        <v>2881.439568158288</v>
       </c>
       <c r="P32" t="n">
-        <v>3363.204762944368</v>
+        <v>3363.204762944369</v>
       </c>
       <c r="Q32" t="n">
         <v>3647.768600862777</v>
       </c>
       <c r="R32" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S32" t="n">
-        <v>3603.733014173525</v>
+        <v>3603.733014173526</v>
       </c>
       <c r="T32" t="n">
         <v>3471.34975621176</v>
@@ -6777,25 +6777,25 @@
         <v>73.41360470123713</v>
       </c>
       <c r="J33" t="n">
-        <v>85.68044859922874</v>
+        <v>210.5105735862335</v>
       </c>
       <c r="K33" t="n">
-        <v>184.8012633799704</v>
+        <v>571.451973009428</v>
       </c>
       <c r="L33" t="n">
-        <v>501.1236781872026</v>
+        <v>1118.186623756013</v>
       </c>
       <c r="M33" t="n">
-        <v>1191.116449441289</v>
+        <v>1347.131381897599</v>
       </c>
       <c r="N33" t="n">
-        <v>1915.07828960036</v>
+        <v>1596.544271456552</v>
       </c>
       <c r="O33" t="n">
-        <v>2121.022561585</v>
+        <v>1913.04604672651</v>
       </c>
       <c r="P33" t="n">
-        <v>2582.256070930674</v>
+        <v>2374.279556072183</v>
       </c>
       <c r="Q33" t="n">
         <v>2629.904173006605</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.4586865960921</v>
+        <v>562.4586865960923</v>
       </c>
       <c r="C34" t="n">
-        <v>474.3100371385459</v>
+        <v>474.3100371385461</v>
       </c>
       <c r="D34" t="n">
-        <v>404.980931196571</v>
+        <v>404.9809311965712</v>
       </c>
       <c r="E34" t="n">
-        <v>337.8553710845387</v>
+        <v>337.8553710845388</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569891</v>
+        <v>271.7529570569892</v>
       </c>
       <c r="G34" t="n">
         <v>184.1005775281942</v>
@@ -6862,7 +6862,7 @@
         <v>345.8781191575663</v>
       </c>
       <c r="L34" t="n">
-        <v>634.215329226892</v>
+        <v>634.2153292268919</v>
       </c>
       <c r="M34" t="n">
         <v>944.3114118605727</v>
@@ -6871,7 +6871,7 @@
         <v>1254.35143930197</v>
       </c>
       <c r="O34" t="n">
-        <v>1530.751734339139</v>
+        <v>1530.75173433914</v>
       </c>
       <c r="P34" t="n">
         <v>1755.16706539186</v>
@@ -6880,7 +6880,7 @@
         <v>1851.465357724015</v>
       </c>
       <c r="R34" t="n">
-        <v>1809.280799904773</v>
+        <v>1809.280799904774</v>
       </c>
       <c r="S34" t="n">
         <v>1685.537218213617</v>
@@ -6895,13 +6895,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W34" t="n">
-        <v>950.5266810567969</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291403</v>
+        <v>803.3246636291406</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.319617955971</v>
+        <v>663.3196179559712</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>1688.950839227093</v>
       </c>
       <c r="C35" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.33412378388</v>
       </c>
       <c r="D35" t="n">
         <v>1172.414226674329</v>
       </c>
       <c r="E35" t="n">
-        <v>891.9717755732845</v>
+        <v>891.9717755732842</v>
       </c>
       <c r="F35" t="n">
-        <v>586.3316722808763</v>
+        <v>586.3316722808759</v>
       </c>
       <c r="G35" t="n">
-        <v>274.9618382852429</v>
+        <v>274.9618382852422</v>
       </c>
       <c r="H35" t="n">
         <v>65.89576755016411</v>
@@ -6935,25 +6935,25 @@
         <v>65.89576755016411</v>
       </c>
       <c r="J35" t="n">
-        <v>285.4925656641198</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K35" t="n">
         <v>735.3560456871492</v>
       </c>
       <c r="L35" t="n">
-        <v>1151.944820883693</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M35" t="n">
-        <v>1847.707882714663</v>
+        <v>1637.516041961357</v>
       </c>
       <c r="N35" t="n">
-        <v>2107.123665570266</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O35" t="n">
-        <v>2715.739551357942</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P35" t="n">
-        <v>3197.504746144023</v>
+        <v>2987.312905390717</v>
       </c>
       <c r="Q35" t="n">
         <v>3271.876743309126</v>
@@ -6965,7 +6965,7 @@
         <v>3252.399424646712</v>
       </c>
       <c r="T35" t="n">
-        <v>3144.574434711786</v>
+        <v>3144.574434711785</v>
       </c>
       <c r="U35" t="n">
         <v>2996.258304655795</v>
@@ -7023,7 +7023,7 @@
         <v>1110.66878660494</v>
       </c>
       <c r="M36" t="n">
-        <v>1450.171048031843</v>
+        <v>1450.171048031844</v>
       </c>
       <c r="N36" t="n">
         <v>1699.583937590796</v>
@@ -7032,7 +7032,7 @@
         <v>1905.528209575437</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.76171892111</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q36" t="n">
         <v>2622.386335855532</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>383.0329732571493</v>
+        <v>383.0329732571496</v>
       </c>
       <c r="C37" t="n">
-        <v>319.4425918264417</v>
+        <v>319.442591826442</v>
       </c>
       <c r="D37" t="n">
-        <v>274.6717539113053</v>
+        <v>274.6717539113055</v>
       </c>
       <c r="E37" t="n">
-        <v>232.1044618261115</v>
+        <v>232.1044618261117</v>
       </c>
       <c r="F37" t="n">
-        <v>190.5603158254005</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G37" t="n">
-        <v>127.466204323444</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H37" t="n">
-        <v>80.04154000532421</v>
+        <v>80.04154000532425</v>
       </c>
       <c r="I37" t="n">
         <v>65.89576755016411</v>
@@ -7096,49 +7096,49 @@
         <v>65.89576755016411</v>
       </c>
       <c r="K37" t="n">
-        <v>185.9522112212027</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L37" t="n">
-        <v>423.1656713230944</v>
+        <v>395.1095597362277</v>
       </c>
       <c r="M37" t="n">
-        <v>757.3313124498796</v>
+        <v>626.0257808156077</v>
       </c>
       <c r="N37" t="n">
-        <v>988.1914783369771</v>
+        <v>960.1353667501101</v>
       </c>
       <c r="O37" t="n">
-        <v>1288.661331867251</v>
+        <v>1260.605220280383</v>
       </c>
       <c r="P37" t="n">
-        <v>1433.896801365671</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q37" t="n">
-        <v>1451.015232143525</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R37" t="n">
         <v>1433.388942351123</v>
       </c>
       <c r="S37" t="n">
-        <v>1334.203628686804</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T37" t="n">
-        <v>1214.633488428792</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U37" t="n">
         <v>1030.836218885788</v>
       </c>
       <c r="V37" t="n">
-        <v>881.4975321770999</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W37" t="n">
-        <v>697.4261636373385</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X37" t="n">
-        <v>574.7824142365205</v>
+        <v>574.7824142365208</v>
       </c>
       <c r="Y37" t="n">
-        <v>459.3356365901897</v>
+        <v>459.33563659019</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>1688.950839227093</v>
       </c>
       <c r="C38" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.33412378388</v>
       </c>
       <c r="D38" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674329</v>
       </c>
       <c r="E38" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732845</v>
       </c>
       <c r="F38" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808763</v>
       </c>
       <c r="G38" t="n">
         <v>274.9618382852429</v>
@@ -7181,7 +7181,7 @@
         <v>1345.728099847961</v>
       </c>
       <c r="M38" t="n">
-        <v>1596.472763521026</v>
+        <v>1637.516041961358</v>
       </c>
       <c r="N38" t="n">
         <v>1896.931824816961</v>
@@ -7193,7 +7193,7 @@
         <v>2987.312905390718</v>
       </c>
       <c r="Q38" t="n">
-        <v>3271.876743309127</v>
+        <v>3271.876743309126</v>
       </c>
       <c r="R38" t="n">
         <v>3294.788377508206</v>
@@ -7208,16 +7208,16 @@
         <v>2996.258304655795</v>
       </c>
       <c r="V38" t="n">
-        <v>2770.541218809424</v>
+        <v>2770.541218809423</v>
       </c>
       <c r="W38" t="n">
-        <v>2523.118365036509</v>
+        <v>2523.118365036508</v>
       </c>
       <c r="X38" t="n">
         <v>2254.998408272628</v>
       </c>
       <c r="Y38" t="n">
-        <v>1970.204877794016</v>
+        <v>1970.204877794015</v>
       </c>
     </row>
     <row r="39">
@@ -7239,10 +7239,10 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F39" t="n">
-        <v>341.1803223556147</v>
+        <v>341.1803223556148</v>
       </c>
       <c r="G39" t="n">
-        <v>203.9380405237518</v>
+        <v>203.9380405237519</v>
       </c>
       <c r="H39" t="n">
         <v>104.9451021914994</v>
@@ -7251,25 +7251,25 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J39" t="n">
-        <v>78.16261144815573</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K39" t="n">
-        <v>177.2834262288974</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L39" t="n">
-        <v>724.0180769754822</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M39" t="n">
-        <v>952.9628351170689</v>
+        <v>1450.171048031844</v>
       </c>
       <c r="N39" t="n">
-        <v>1676.924675276139</v>
+        <v>1699.583937590796</v>
       </c>
       <c r="O39" t="n">
-        <v>2272.792643344742</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P39" t="n">
-        <v>2574.738233779601</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q39" t="n">
         <v>2622.386335855532</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2226.806118621831</v>
+        <v>383.0329732571496</v>
       </c>
       <c r="C40" t="n">
-        <v>2163.215737191123</v>
+        <v>319.442591826442</v>
       </c>
       <c r="D40" t="n">
-        <v>2118.444899275987</v>
+        <v>274.6717539113055</v>
       </c>
       <c r="E40" t="n">
-        <v>2075.877607190793</v>
+        <v>232.1044618261117</v>
       </c>
       <c r="F40" t="n">
-        <v>2034.333461190082</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G40" t="n">
-        <v>1971.239349688125</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H40" t="n">
-        <v>1923.814685370006</v>
+        <v>80.04154000532426</v>
       </c>
       <c r="I40" t="n">
-        <v>1909.668912914846</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J40" t="n">
-        <v>2006.96668063894</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="K40" t="n">
-        <v>2127.023124309979</v>
+        <v>185.9522112212026</v>
       </c>
       <c r="L40" t="n">
-        <v>2439.429892872409</v>
+        <v>395.1095597362277</v>
       </c>
       <c r="M40" t="n">
-        <v>2670.346113951789</v>
+        <v>626.0257808156077</v>
       </c>
       <c r="N40" t="n">
-        <v>2901.206279838887</v>
+        <v>856.8859467027052</v>
       </c>
       <c r="O40" t="n">
-        <v>3098.426713321755</v>
+        <v>1082.162491772441</v>
       </c>
       <c r="P40" t="n">
-        <v>3243.662182820175</v>
+        <v>1330.647381318267</v>
       </c>
       <c r="Q40" t="n">
-        <v>3294.788377508206</v>
+        <v>1451.015232143526</v>
       </c>
       <c r="R40" t="n">
-        <v>3277.162087715804</v>
+        <v>1433.388942351123</v>
       </c>
       <c r="S40" t="n">
-        <v>3177.976774051486</v>
+        <v>1334.203628686805</v>
       </c>
       <c r="T40" t="n">
-        <v>3058.406633793474</v>
+        <v>1214.633488428793</v>
       </c>
       <c r="U40" t="n">
-        <v>2874.609364250469</v>
+        <v>1030.836218885788</v>
       </c>
       <c r="V40" t="n">
-        <v>2725.270677541781</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W40" t="n">
-        <v>2541.19930900202</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X40" t="n">
-        <v>2418.555559601202</v>
+        <v>574.7824142365208</v>
       </c>
       <c r="Y40" t="n">
-        <v>2303.108781954871</v>
+        <v>459.33563659019</v>
       </c>
     </row>
     <row r="41">
@@ -7400,61 +7400,61 @@
         <v>586.3316722808763</v>
       </c>
       <c r="G41" t="n">
-        <v>274.9618382852432</v>
+        <v>274.9618382852429</v>
       </c>
       <c r="H41" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="I41" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J41" t="n">
-        <v>285.4925656641198</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K41" t="n">
-        <v>414.4520872416962</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L41" t="n">
-        <v>976.7095573195078</v>
+        <v>1345.728099847961</v>
       </c>
       <c r="M41" t="n">
-        <v>1227.454220992573</v>
+        <v>1596.472763521026</v>
       </c>
       <c r="N41" t="n">
-        <v>1919.843459016041</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O41" t="n">
-        <v>2528.459344803717</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P41" t="n">
-        <v>3010.224539589798</v>
+        <v>2987.312905390717</v>
       </c>
       <c r="Q41" t="n">
-        <v>3294.788377508206</v>
+        <v>3271.876743309126</v>
       </c>
       <c r="R41" t="n">
-        <v>3294.788377508206</v>
+        <v>3294.788377508205</v>
       </c>
       <c r="S41" t="n">
-        <v>3252.399424646714</v>
+        <v>3252.399424646712</v>
       </c>
       <c r="T41" t="n">
-        <v>3144.574434711787</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U41" t="n">
-        <v>2996.258304655796</v>
+        <v>2996.258304655795</v>
       </c>
       <c r="V41" t="n">
-        <v>2770.541218809425</v>
+        <v>2770.541218809423</v>
       </c>
       <c r="W41" t="n">
-        <v>2523.11836503651</v>
+        <v>2523.118365036508</v>
       </c>
       <c r="X41" t="n">
-        <v>2254.998408272629</v>
+        <v>2254.998408272628</v>
       </c>
       <c r="Y41" t="n">
-        <v>1970.204877794016</v>
+        <v>1970.204877794015</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>104.9451021914994</v>
       </c>
       <c r="I42" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J42" t="n">
         <v>202.9927364351605</v>
       </c>
       <c r="K42" t="n">
-        <v>302.1135512159021</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L42" t="n">
-        <v>848.848201962487</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M42" t="n">
-        <v>1498.876753243754</v>
+        <v>1450.171048031844</v>
       </c>
       <c r="N42" t="n">
-        <v>2222.838593402824</v>
+        <v>1699.583937590796</v>
       </c>
       <c r="O42" t="n">
-        <v>2428.782865387465</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P42" t="n">
-        <v>2574.738233779601</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q42" t="n">
         <v>2622.386335855532</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.0329732571504</v>
+        <v>383.0329732571492</v>
       </c>
       <c r="C43" t="n">
-        <v>319.4425918264427</v>
+        <v>319.4425918264416</v>
       </c>
       <c r="D43" t="n">
-        <v>274.6717539113061</v>
+        <v>274.6717539113052</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1044618261121</v>
+        <v>232.1044618261115</v>
       </c>
       <c r="F43" t="n">
-        <v>190.5603158254009</v>
+        <v>190.5603158254004</v>
       </c>
       <c r="G43" t="n">
-        <v>127.4662043234443</v>
+        <v>127.466204323444</v>
       </c>
       <c r="H43" t="n">
-        <v>80.04154000532436</v>
+        <v>80.04154000532421</v>
       </c>
       <c r="I43" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J43" t="n">
-        <v>65.89576755016412</v>
+        <v>163.1935352742586</v>
       </c>
       <c r="K43" t="n">
-        <v>185.9522112212027</v>
+        <v>386.4993989927022</v>
       </c>
       <c r="L43" t="n">
-        <v>395.1095597362278</v>
+        <v>629.6645114179046</v>
       </c>
       <c r="M43" t="n">
-        <v>654.0818924024769</v>
+        <v>860.5807324972847</v>
       </c>
       <c r="N43" t="n">
-        <v>988.1914783369792</v>
+        <v>1091.440898384382</v>
       </c>
       <c r="O43" t="n">
-        <v>1185.411911819848</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P43" t="n">
-        <v>1433.896801365673</v>
+        <v>1433.896801365671</v>
       </c>
       <c r="Q43" t="n">
-        <v>1451.015232143527</v>
+        <v>1451.015232143525</v>
       </c>
       <c r="R43" t="n">
-        <v>1433.388942351124</v>
+        <v>1433.388942351122</v>
       </c>
       <c r="S43" t="n">
-        <v>1334.203628686806</v>
+        <v>1334.203628686804</v>
       </c>
       <c r="T43" t="n">
-        <v>1214.633488428794</v>
+        <v>1214.633488428792</v>
       </c>
       <c r="U43" t="n">
-        <v>1030.836218885789</v>
+        <v>1030.836218885787</v>
       </c>
       <c r="V43" t="n">
-        <v>881.4975321771014</v>
+        <v>881.4975321770996</v>
       </c>
       <c r="W43" t="n">
-        <v>697.42616363734</v>
+        <v>697.4261636373384</v>
       </c>
       <c r="X43" t="n">
-        <v>574.7824142365218</v>
+        <v>574.7824142365204</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.3356365901909</v>
+        <v>459.3356365901896</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>1688.950839227093</v>
       </c>
       <c r="C44" t="n">
-        <v>1425.334123783881</v>
+        <v>1425.33412378388</v>
       </c>
       <c r="D44" t="n">
-        <v>1172.41422667433</v>
+        <v>1172.414226674329</v>
       </c>
       <c r="E44" t="n">
-        <v>891.971775573285</v>
+        <v>891.9717755732845</v>
       </c>
       <c r="F44" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808759</v>
       </c>
       <c r="G44" t="n">
-        <v>274.961838285243</v>
+        <v>274.9618382852429</v>
       </c>
       <c r="H44" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="I44" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J44" t="n">
-        <v>285.4925656641198</v>
+        <v>285.4925656641197</v>
       </c>
       <c r="K44" t="n">
         <v>735.3560456871492</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.728099847961</v>
+        <v>932.2434974430149</v>
       </c>
       <c r="M44" t="n">
-        <v>2041.49116167893</v>
+        <v>1628.006559273984</v>
       </c>
       <c r="N44" t="n">
-        <v>2484.115845020384</v>
+        <v>1896.93182481696</v>
       </c>
       <c r="O44" t="n">
-        <v>2715.739551357943</v>
+        <v>2505.547710604636</v>
       </c>
       <c r="P44" t="n">
-        <v>3197.504746144024</v>
+        <v>2987.312905390717</v>
       </c>
       <c r="Q44" t="n">
-        <v>3271.876743309127</v>
+        <v>3271.876743309126</v>
       </c>
       <c r="R44" t="n">
-        <v>3294.788377508206</v>
+        <v>3294.788377508205</v>
       </c>
       <c r="S44" t="n">
-        <v>3252.399424646713</v>
+        <v>3252.399424646712</v>
       </c>
       <c r="T44" t="n">
-        <v>3144.574434711787</v>
+        <v>3144.574434711785</v>
       </c>
       <c r="U44" t="n">
-        <v>2996.258304655796</v>
+        <v>2996.258304655795</v>
       </c>
       <c r="V44" t="n">
-        <v>2770.541218809424</v>
+        <v>2770.541218809423</v>
       </c>
       <c r="W44" t="n">
-        <v>2523.118365036509</v>
+        <v>2523.118365036508</v>
       </c>
       <c r="X44" t="n">
-        <v>2254.998408272629</v>
+        <v>2254.998408272628</v>
       </c>
       <c r="Y44" t="n">
-        <v>1970.204877794016</v>
+        <v>1970.204877794015</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>104.9451021914994</v>
       </c>
       <c r="I45" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J45" t="n">
         <v>202.9927364351605</v>
@@ -7731,19 +7731,19 @@
         <v>563.9341358583549</v>
       </c>
       <c r="L45" t="n">
-        <v>743.5368447545152</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M45" t="n">
-        <v>1433.529616008602</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N45" t="n">
-        <v>1907.560452449287</v>
+        <v>1589.026434305478</v>
       </c>
       <c r="O45" t="n">
-        <v>2113.504724433928</v>
+        <v>1905.528209575437</v>
       </c>
       <c r="P45" t="n">
-        <v>2574.738233779601</v>
+        <v>2366.761718921111</v>
       </c>
       <c r="Q45" t="n">
         <v>2622.386335855532</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>383.0329732571496</v>
+        <v>383.0329732571495</v>
       </c>
       <c r="C46" t="n">
-        <v>319.442591826442</v>
+        <v>319.4425918264419</v>
       </c>
       <c r="D46" t="n">
-        <v>274.6717539113055</v>
+        <v>274.6717539113054</v>
       </c>
       <c r="E46" t="n">
-        <v>232.1044618261117</v>
+        <v>232.1044618261116</v>
       </c>
       <c r="F46" t="n">
         <v>190.5603158254006</v>
@@ -7798,31 +7798,31 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H46" t="n">
-        <v>80.04154000532426</v>
+        <v>80.04154000532424</v>
       </c>
       <c r="I46" t="n">
-        <v>65.89576755016412</v>
+        <v>65.89576755016411</v>
       </c>
       <c r="J46" t="n">
-        <v>65.89576755016412</v>
+        <v>163.1935352742586</v>
       </c>
       <c r="K46" t="n">
-        <v>289.2016312686077</v>
+        <v>386.4993989927021</v>
       </c>
       <c r="L46" t="n">
-        <v>498.3589797836328</v>
+        <v>629.6645114179053</v>
       </c>
       <c r="M46" t="n">
-        <v>729.275200863013</v>
+        <v>860.5807324972853</v>
       </c>
       <c r="N46" t="n">
-        <v>960.1353667501104</v>
+        <v>1091.440898384383</v>
       </c>
       <c r="O46" t="n">
-        <v>1260.605220280384</v>
+        <v>1288.661331867251</v>
       </c>
       <c r="P46" t="n">
-        <v>1405.840689778804</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q46" t="n">
         <v>1451.015232143526</v>
@@ -7840,16 +7840,16 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V46" t="n">
-        <v>881.4975321771003</v>
+        <v>881.4975321771001</v>
       </c>
       <c r="W46" t="n">
-        <v>697.426163637339</v>
+        <v>697.4261636373387</v>
       </c>
       <c r="X46" t="n">
-        <v>574.7824142365208</v>
+        <v>574.7824142365207</v>
       </c>
       <c r="Y46" t="n">
-        <v>459.33563659019</v>
+        <v>459.3356365901899</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>209.3306246523572</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>195.1428352868274</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>42.57335502542708</v>
+        <v>65.6352091326338</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.3016188671913</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,16 +8778,16 @@
         <v>217.1629418842806</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>196.4880616647193</v>
       </c>
       <c r="O12" t="n">
-        <v>240.3957561842257</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>55.11827804628892</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>67.20946937699767</v>
       </c>
       <c r="L14" t="n">
-        <v>84.24688084821094</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>398.8885232487884</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>196.283698299019</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>420.9086298462416</v>
+        <v>111.6742457427445</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>104.0705026647028</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>64.86276497731532</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>318.4454865548516</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427445</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>398.8885232487884</v>
       </c>
       <c r="N20" t="n">
-        <v>390.1298170038005</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>225.5777098071516</v>
       </c>
       <c r="P20" t="n">
-        <v>22.63284996146825</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>42.57335502542708</v>
+        <v>42.57335502542711</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>420.9086298462416</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>61.60596119996183</v>
+        <v>111.6742457427445</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>8.207996285735049</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>160.7252713562843</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>36.27469510595222</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,10 +9875,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>268.4989963308475</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>268.498996330849</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>353.1175087820523</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>111.6742457427452</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>172.6364899518794</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>413.5528271140503</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>376.139482755323</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>111.6742457427452</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>413.552827114049</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>413.5528271140503</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.1007130414868</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>111.6742457427452</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,10 +10589,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>221.9205287279579</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>41.45785701043494</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>111.6742457427445</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>41.45785701043584</v>
       </c>
       <c r="N38" t="n">
-        <v>41.45785701043559</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>157.5658808512351</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>369.0606245676219</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>41.45785701043496</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>42.57335502542708</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>425.3371647875558</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,22 +11300,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>185.059495440253</v>
+        <v>9.605538068052908</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>226.8868150320531</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>111.6742457427454</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258.2340394144786</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>287.8493297879133</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2594796375887</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5068080891675</v>
+        <v>88.01141990488257</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4524837586172</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>335.1249171548103</v>
       </c>
       <c r="H11" t="n">
         <v>233.8441915268611</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>26.86878149913301</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>68.83384483201117</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>133.6155215347105</v>
       </c>
       <c r="U11" t="n">
         <v>173.7017502545638</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W11" t="n">
         <v>271.8174067343188</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.93937715402093</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>60.93937715401998</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157.4909722377691</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>277.2594796375887</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5068080891675</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>329.4524837586172</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>233.8441915268611</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>68.8338448320112</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>133.6155215347108</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>104.8280097049321</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.3286964870406</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60.93937715402161</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>60.93937715402164</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>40963.81693585192</v>
+      </c>
+      <c r="C2" t="n">
         <v>40963.81693585191</v>
       </c>
-      <c r="C2" t="n">
-        <v>40963.81693585192</v>
-      </c>
       <c r="D2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.81693585189</v>
       </c>
       <c r="E2" t="n">
         <v>33578.52532255698</v>
       </c>
       <c r="F2" t="n">
-        <v>36725.49646061126</v>
+        <v>36725.49646061124</v>
       </c>
       <c r="G2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="H2" t="n">
         <v>41052.08849321421</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321421</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321422</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321425</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="M2" t="n">
+        <v>41052.08849321426</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321424</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321426</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321426</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>746256.164416639</v>
+        <v>746256.1644166389</v>
       </c>
       <c r="F3" t="n">
-        <v>58378.43698898885</v>
+        <v>58378.43698898876</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027679</v>
+        <v>59877.36107027689</v>
       </c>
       <c r="H3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73573.91951487746</v>
+        <v>73573.91951487749</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>59877.3610702768</v>
+        <v>59877.36107027689</v>
       </c>
       <c r="M3" t="n">
-        <v>107779.8354573344</v>
+        <v>107779.8354573343</v>
       </c>
       <c r="N3" t="n">
-        <v>49902.82011545928</v>
+        <v>49902.8201154592</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248724</v>
+        <v>4106.365438248872</v>
       </c>
       <c r="P3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26430,7 +26430,7 @@
         <v>153149.3497879656</v>
       </c>
       <c r="G4" t="n">
-        <v>202349.5883717044</v>
+        <v>202349.5883717045</v>
       </c>
       <c r="H4" t="n">
         <v>202349.5883717045</v>
@@ -26454,7 +26454,7 @@
         <v>193885.545962394</v>
       </c>
       <c r="O4" t="n">
-        <v>193885.5459623939</v>
+        <v>193885.545962394</v>
       </c>
       <c r="P4" t="n">
         <v>193885.545962394</v>
@@ -26479,13 +26479,13 @@
         <v>48708.52866658148</v>
       </c>
       <c r="F5" t="n">
-        <v>61096.26649466871</v>
+        <v>61096.26649466869</v>
       </c>
       <c r="G5" t="n">
-        <v>67388.55382944009</v>
+        <v>67388.55382944008</v>
       </c>
       <c r="H5" t="n">
-        <v>67388.55382944009</v>
+        <v>67388.55382944008</v>
       </c>
       <c r="I5" t="n">
         <v>67388.55382944009</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-423562.2925068239</v>
+        <v>-423566.706084692</v>
       </c>
       <c r="C6" t="n">
-        <v>-423562.2925068239</v>
+        <v>-423566.706084692</v>
       </c>
       <c r="D6" t="n">
-        <v>-423562.2925068239</v>
+        <v>-423566.7060846921</v>
       </c>
       <c r="E6" t="n">
-        <v>-894153.716731226</v>
+        <v>-894527.3948897587</v>
       </c>
       <c r="F6" t="n">
-        <v>-235898.556811012</v>
+        <v>-236114.886412642</v>
       </c>
       <c r="G6" t="n">
-        <v>-288563.4147782071</v>
+        <v>-288563.4147782073</v>
       </c>
       <c r="H6" t="n">
-        <v>-228686.0537079305</v>
+        <v>-228686.0537079304</v>
       </c>
       <c r="I6" t="n">
         <v>-228686.0537079304</v>
@@ -26549,19 +26549,19 @@
         <v>-225732.6815179426</v>
       </c>
       <c r="L6" t="n">
-        <v>-285610.0425882194</v>
+        <v>-285610.0425882195</v>
       </c>
       <c r="M6" t="n">
-        <v>-334397.4839039729</v>
+        <v>-334397.4839039728</v>
       </c>
       <c r="N6" t="n">
         <v>-276520.4685620978</v>
       </c>
       <c r="O6" t="n">
-        <v>-230724.0138848871</v>
+        <v>-230724.0138848874</v>
       </c>
       <c r="P6" t="n">
-        <v>-226617.6484466386</v>
+        <v>-226617.6484466385</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="G2" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H2" t="n">
         <v>152.2702633209404</v>
@@ -26707,13 +26707,13 @@
         <v>152.2702633209404</v>
       </c>
       <c r="J2" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="K2" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L2" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26722,7 +26722,7 @@
         <v>104.2923434822273</v>
       </c>
       <c r="O2" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="P2" t="n">
         <v>104.2923434822273</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="G3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="H3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="I3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="J3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="K3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="L3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="M3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="N3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="O3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="P3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023895</v>
       </c>
       <c r="G4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023895</v>
       </c>
       <c r="H4" t="n">
-        <v>652.1659613023897</v>
+        <v>652.1659613023895</v>
       </c>
       <c r="I4" t="n">
         <v>652.1659613023897</v>
       </c>
       <c r="J4" t="n">
-        <v>917.6700587654641</v>
+        <v>917.6700587654642</v>
       </c>
       <c r="K4" t="n">
-        <v>917.6700587654641</v>
+        <v>917.6700587654642</v>
       </c>
       <c r="L4" t="n">
-        <v>917.6700587654641</v>
+        <v>917.6700587654642</v>
       </c>
       <c r="M4" t="n">
         <v>823.6970943770514</v>
       </c>
       <c r="N4" t="n">
-        <v>823.6970943770516</v>
+        <v>823.6970943770515</v>
       </c>
       <c r="O4" t="n">
-        <v>823.6970943770516</v>
+        <v>823.6970943770514</v>
       </c>
       <c r="P4" t="n">
-        <v>823.6970943770516</v>
+        <v>823.6970943770514</v>
       </c>
     </row>
   </sheetData>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.84670133784599</v>
+        <v>74.84670133784611</v>
       </c>
       <c r="H2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.846701337846</v>
+        <v>74.84670133784611</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657026</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797810905</v>
+        <v>5.13295679781109</v>
       </c>
       <c r="P2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>685.1217713360854</v>
+        <v>685.1217713360853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>203.745687961961</v>
+        <v>203.7456879619608</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>265.5040974630743</v>
+        <v>265.5040974630745</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>354.447308952016</v>
+        <v>354.4473089520159</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619613</v>
+        <v>203.7456879619609</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784599</v>
+        <v>74.84670133784611</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>448.4202733404287</v>
       </c>
       <c r="N4" t="n">
-        <v>203.745687961961</v>
+        <v>203.7456879619608</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="C11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="D11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="E11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="G11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="H11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="I11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="T11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="U11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="V11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="W11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="X11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.42356198309426</v>
+        <v>55.2253667000078</v>
       </c>
       <c r="C12" t="n">
-        <v>77.42356198309426</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>77.42356198309426</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="I12" t="n">
-        <v>38.65884129492195</v>
+        <v>38.65884129492196</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="T12" t="n">
-        <v>55.22536670000784</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="U12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="V12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="W12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="X12" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>77.42356198309427</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="C13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="D13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="E13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="F13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="G13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="H13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="I13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="J13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="K13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="L13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="M13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="N13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="O13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="P13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="R13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="S13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="T13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="U13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="V13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="W13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="X13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309427</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="C14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="D14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="E14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="F14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="G14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="H14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="I14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="T14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="U14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="V14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="W14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="X14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
     </row>
     <row r="15">
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="C16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="D16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="E16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="F16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="G16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="H16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="I16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="J16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="K16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="L16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="M16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="N16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="O16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="P16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="R16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="S16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="T16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="U16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="V16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="W16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="X16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.42356198309426</v>
+        <v>77.42356198309425</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="E17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="F17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="G17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="I17" t="n">
         <v>104.2923434822273</v>
@@ -28615,22 +28615,22 @@
         <v>146.2574068151054</v>
       </c>
       <c r="T17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="U17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="V17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="W17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y17" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C19" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H19" t="n">
         <v>151.2427611571659</v>
@@ -28743,7 +28743,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J19" t="n">
-        <v>6.011770023545964</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2702633209402</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>124.9851515762004</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>130.9969215997458</v>
       </c>
       <c r="V19" t="n">
-        <v>152.2702633209402</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X19" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.2702633209402</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="20">
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28962,13 +28962,13 @@
         <v>152.2702633209404</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>152.2702633209404</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.7423703767059</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.2702633209404</v>
@@ -29013,16 +29013,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2702633209404</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="W22" t="n">
+        <v>130.9969215997459</v>
+      </c>
+      <c r="X22" t="n">
         <v>152.2702633209404</v>
-      </c>
-      <c r="X22" t="n">
-        <v>151.0208089432431</v>
       </c>
       <c r="Y22" t="n">
         <v>152.2702633209404</v>
@@ -29202,7 +29202,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J25" t="n">
-        <v>6.011770023545964</v>
+        <v>2.405335925031116</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29250,19 +29250,19 @@
         <v>152.2702633209404</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>152.2702633209404</v>
-      </c>
-      <c r="V25" t="n">
-        <v>142.8275285480541</v>
       </c>
       <c r="W25" t="n">
         <v>152.2702633209404</v>
       </c>
       <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>152.2702633209404</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="K28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="M28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="N28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="O28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="P28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="R28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="S28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="M31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="N31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="O31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="P31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="R31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="S31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.97965813565715</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="M34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="N34" t="n">
-        <v>79.97965813565671</v>
+        <v>79.97965813565699</v>
       </c>
       <c r="O34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="P34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="R34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="S34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.97965813565716</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="35">
@@ -30165,25 +30165,25 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J37" t="n">
-        <v>6.011770023545964</v>
+        <v>6.011770023545978</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>28.33950665340069</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>104.2923434822273</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>104.2923434822273</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>28.33950665340174</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,28 +30402,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
+        <v>6.011770023545978</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>28.33950665340151</v>
+      </c>
+      <c r="P40" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
+      <c r="Q40" t="n">
         <v>104.2923434822273</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>34.35127667694682</v>
       </c>
       <c r="R40" t="n">
         <v>104.2923434822273</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="C41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="D41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="E41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="F41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="G41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="H41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="I41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="T41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="U41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="V41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="W41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="X41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="Y41" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="C43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="D43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="E43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="F43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="G43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="H43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="I43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="J43" t="n">
-        <v>6.011770023545964</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>34.35127667694681</v>
       </c>
       <c r="M43" t="n">
-        <v>28.33950665340302</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2923434822272</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>104.2923434822272</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="S43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="T43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="U43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="V43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="W43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="X43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.2923434822272</v>
+        <v>104.2923434822273</v>
       </c>
     </row>
     <row r="44">
@@ -30876,13 +30876,13 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J46" t="n">
-        <v>6.011770023545964</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="K46" t="n">
         <v>104.2923434822273</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>34.35127667694755</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,13 +30891,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.33950665340149</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>104.2923434822273</v>
@@ -31753,7 +31753,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H11" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I11" t="n">
         <v>106.1835460881786</v>
@@ -31762,34 +31762,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K11" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L11" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M11" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N11" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O11" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P11" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q11" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R11" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S11" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T11" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U11" t="n">
         <v>0.2203406701784393</v>
@@ -31835,7 +31835,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I12" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J12" t="n">
         <v>139.2283780787794</v>
@@ -31847,10 +31847,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M12" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N12" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O12" t="n">
         <v>350.6207616006474</v>
@@ -31862,16 +31862,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R12" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S12" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T12" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I13" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J13" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K13" t="n">
         <v>143.5386268471339</v>
@@ -31929,7 +31929,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N13" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O13" t="n">
         <v>174.6274311595649</v>
@@ -31947,10 +31947,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T13" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H14" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I14" t="n">
         <v>106.1835460881786</v>
@@ -31999,34 +31999,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K14" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L14" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M14" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N14" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O14" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q14" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R14" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S14" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T14" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U14" t="n">
         <v>0.2203406701784393</v>
@@ -32072,7 +32072,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I15" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J15" t="n">
         <v>139.2283780787794</v>
@@ -32084,10 +32084,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M15" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N15" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O15" t="n">
         <v>350.6207616006474</v>
@@ -32099,16 +32099,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R15" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S15" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T15" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I16" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J16" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K16" t="n">
         <v>143.5386268471339</v>
@@ -32166,7 +32166,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N16" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O16" t="n">
         <v>174.6274311595649</v>
@@ -32184,10 +32184,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T16" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H17" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I17" t="n">
         <v>106.1835460881786</v>
@@ -32236,34 +32236,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K17" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L17" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M17" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N17" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O17" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P17" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q17" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R17" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S17" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T17" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U17" t="n">
         <v>0.2203406701784393</v>
@@ -32309,7 +32309,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I18" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J18" t="n">
         <v>139.2283780787794</v>
@@ -32321,10 +32321,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M18" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N18" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O18" t="n">
         <v>350.6207616006474</v>
@@ -32336,16 +32336,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R18" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S18" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T18" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I19" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J19" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K19" t="n">
         <v>143.5386268471339</v>
@@ -32403,7 +32403,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N19" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O19" t="n">
         <v>174.6274311595649</v>
@@ -32421,10 +32421,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T19" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H20" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I20" t="n">
         <v>106.1835460881786</v>
@@ -32473,34 +32473,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K20" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L20" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M20" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N20" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O20" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P20" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q20" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R20" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S20" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T20" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U20" t="n">
         <v>0.2203406701784393</v>
@@ -32546,7 +32546,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I21" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J21" t="n">
         <v>139.2283780787794</v>
@@ -32558,10 +32558,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M21" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N21" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O21" t="n">
         <v>350.6207616006474</v>
@@ -32573,16 +32573,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R21" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S21" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T21" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I22" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J22" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K22" t="n">
         <v>143.5386268471339</v>
@@ -32640,7 +32640,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N22" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O22" t="n">
         <v>174.6274311595649</v>
@@ -32658,10 +32658,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T22" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H23" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I23" t="n">
         <v>106.1835460881786</v>
@@ -32710,34 +32710,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K23" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L23" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M23" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N23" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O23" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P23" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q23" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R23" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S23" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T23" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U23" t="n">
         <v>0.2203406701784393</v>
@@ -32783,7 +32783,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I24" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J24" t="n">
         <v>139.2283780787794</v>
@@ -32795,10 +32795,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M24" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N24" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O24" t="n">
         <v>350.6207616006474</v>
@@ -32810,16 +32810,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R24" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S24" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T24" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I25" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J25" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K25" t="n">
         <v>143.5386268471339</v>
@@ -32877,7 +32877,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N25" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O25" t="n">
         <v>174.6274311595649</v>
@@ -32895,10 +32895,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T25" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H26" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I26" t="n">
         <v>106.1835460881786</v>
@@ -32947,34 +32947,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K26" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L26" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M26" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N26" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O26" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P26" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q26" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R26" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T26" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U26" t="n">
         <v>0.2203406701784393</v>
@@ -33020,7 +33020,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I27" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J27" t="n">
         <v>139.2283780787794</v>
@@ -33032,10 +33032,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N27" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O27" t="n">
         <v>350.6207616006474</v>
@@ -33047,16 +33047,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R27" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S27" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I28" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J28" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
@@ -33114,7 +33114,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N28" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O28" t="n">
         <v>174.6274311595649</v>
@@ -33132,10 +33132,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H29" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I29" t="n">
         <v>106.1835460881786</v>
@@ -33184,34 +33184,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K29" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L29" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M29" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N29" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O29" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q29" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R29" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S29" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T29" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U29" t="n">
         <v>0.2203406701784393</v>
@@ -33257,7 +33257,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I30" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J30" t="n">
         <v>139.2283780787794</v>
@@ -33269,10 +33269,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M30" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N30" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O30" t="n">
         <v>350.6207616006474</v>
@@ -33284,16 +33284,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R30" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S30" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T30" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,10 +33336,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I31" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J31" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K31" t="n">
         <v>143.5386268471339</v>
@@ -33351,7 +33351,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N31" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O31" t="n">
         <v>174.6274311595649</v>
@@ -33369,10 +33369,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T31" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H32" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I32" t="n">
         <v>106.1835460881786</v>
@@ -33421,34 +33421,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K32" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L32" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M32" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N32" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O32" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q32" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R32" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S32" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T32" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U32" t="n">
         <v>0.2203406701784393</v>
@@ -33494,7 +33494,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I33" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J33" t="n">
         <v>139.2283780787794</v>
@@ -33506,10 +33506,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M33" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N33" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O33" t="n">
         <v>350.6207616006474</v>
@@ -33521,16 +33521,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R33" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S33" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T33" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I34" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J34" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K34" t="n">
         <v>143.5386268471339</v>
@@ -33588,7 +33588,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N34" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O34" t="n">
         <v>174.6274311595649</v>
@@ -33606,10 +33606,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T34" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H35" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I35" t="n">
         <v>106.1835460881786</v>
@@ -33658,34 +33658,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K35" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L35" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M35" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N35" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O35" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P35" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q35" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R35" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S35" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T35" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U35" t="n">
         <v>0.2203406701784393</v>
@@ -33731,7 +33731,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I36" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J36" t="n">
         <v>139.2283780787794</v>
@@ -33743,10 +33743,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M36" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N36" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O36" t="n">
         <v>350.6207616006474</v>
@@ -33758,16 +33758,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R36" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S36" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T36" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I37" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J37" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K37" t="n">
         <v>143.5386268471339</v>
@@ -33825,7 +33825,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N37" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O37" t="n">
         <v>174.6274311595649</v>
@@ -33843,10 +33843,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T37" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H38" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I38" t="n">
         <v>106.1835460881786</v>
@@ -33895,34 +33895,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K38" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L38" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M38" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N38" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O38" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q38" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R38" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S38" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T38" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U38" t="n">
         <v>0.2203406701784393</v>
@@ -33968,7 +33968,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I39" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J39" t="n">
         <v>139.2283780787794</v>
@@ -33980,10 +33980,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M39" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N39" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O39" t="n">
         <v>350.6207616006474</v>
@@ -33995,16 +33995,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R39" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S39" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T39" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I40" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J40" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K40" t="n">
         <v>143.5386268471339</v>
@@ -34062,7 +34062,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N40" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O40" t="n">
         <v>174.6274311595649</v>
@@ -34080,10 +34080,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T40" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H41" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I41" t="n">
         <v>106.1835460881786</v>
@@ -34132,34 +34132,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K41" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L41" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M41" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N41" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O41" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P41" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q41" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R41" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S41" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T41" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U41" t="n">
         <v>0.2203406701784393</v>
@@ -34205,7 +34205,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I42" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J42" t="n">
         <v>139.2283780787794</v>
@@ -34217,10 +34217,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M42" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N42" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O42" t="n">
         <v>350.6207616006474</v>
@@ -34232,16 +34232,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R42" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S42" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T42" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I43" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J43" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K43" t="n">
         <v>143.5386268471339</v>
@@ -34299,7 +34299,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N43" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O43" t="n">
         <v>174.6274311595649</v>
@@ -34317,10 +34317,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T43" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>2.754258377230492</v>
       </c>
       <c r="H44" t="n">
-        <v>28.20704860581179</v>
+        <v>28.20704860581178</v>
       </c>
       <c r="I44" t="n">
         <v>106.1835460881786</v>
@@ -34369,34 +34369,34 @@
         <v>233.7642369444667</v>
       </c>
       <c r="K44" t="n">
-        <v>350.3519940526335</v>
+        <v>350.3519940526334</v>
       </c>
       <c r="L44" t="n">
-        <v>434.6426288648013</v>
+        <v>434.6426288648012</v>
       </c>
       <c r="M44" t="n">
-        <v>483.623671280874</v>
+        <v>483.6236712808739</v>
       </c>
       <c r="N44" t="n">
-        <v>491.4492078951802</v>
+        <v>491.4492078951801</v>
       </c>
       <c r="O44" t="n">
         <v>464.0615511565944</v>
       </c>
       <c r="P44" t="n">
-        <v>396.0657974687166</v>
+        <v>396.0657974687165</v>
       </c>
       <c r="Q44" t="n">
-        <v>297.4289193341495</v>
+        <v>297.4289193341494</v>
       </c>
       <c r="R44" t="n">
         <v>173.012182788705</v>
       </c>
       <c r="S44" t="n">
-        <v>62.7626627711399</v>
+        <v>62.76266277113989</v>
       </c>
       <c r="T44" t="n">
-        <v>12.05676604632649</v>
+        <v>12.05676604632648</v>
       </c>
       <c r="U44" t="n">
         <v>0.2203406701784393</v>
@@ -34442,7 +34442,7 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I45" t="n">
-        <v>50.73779155649313</v>
+        <v>50.73779155649312</v>
       </c>
       <c r="J45" t="n">
         <v>139.2283780787794</v>
@@ -34454,10 +34454,10 @@
         <v>319.9712574527633</v>
       </c>
       <c r="M45" t="n">
-        <v>373.3913653781665</v>
+        <v>373.3913653781664</v>
       </c>
       <c r="N45" t="n">
-        <v>383.2739237590428</v>
+        <v>383.2739237590427</v>
       </c>
       <c r="O45" t="n">
         <v>350.6207616006474</v>
@@ -34469,16 +34469,16 @@
         <v>188.1111701223154</v>
       </c>
       <c r="R45" t="n">
-        <v>91.49607353805311</v>
+        <v>91.4960735380531</v>
       </c>
       <c r="S45" t="n">
         <v>27.37255378875773</v>
       </c>
       <c r="T45" t="n">
-        <v>5.939876489225116</v>
+        <v>5.939876489225115</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09695119405699326</v>
+        <v>0.09695119405699325</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>10.98441135027364</v>
       </c>
       <c r="I46" t="n">
-        <v>37.15381671442248</v>
+        <v>37.15381671442247</v>
       </c>
       <c r="J46" t="n">
-        <v>87.34741009312681</v>
+        <v>87.3474100931268</v>
       </c>
       <c r="K46" t="n">
         <v>143.5386268471339</v>
@@ -34536,7 +34536,7 @@
         <v>193.6648311991495</v>
       </c>
       <c r="N46" t="n">
-        <v>189.0599143754153</v>
+        <v>189.0599143754152</v>
       </c>
       <c r="O46" t="n">
         <v>174.6274311595649</v>
@@ -34554,10 +34554,10 @@
         <v>21.53079402707008</v>
       </c>
       <c r="T46" t="n">
-        <v>5.278807090622296</v>
+        <v>5.278807090622295</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06738902668879536</v>
+        <v>0.06738902668879534</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>52.7183324177804</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K11" t="n">
-        <v>339.5927676600102</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L11" t="n">
-        <v>198.876213894814</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4202733404287</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N11" t="n">
         <v>262.0361442985892</v>
       </c>
       <c r="O11" t="n">
-        <v>233.9633397349077</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P11" t="n">
-        <v>164.8328017134471</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.06185410720671</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K12" t="n">
-        <v>237.4236539992536</v>
+        <v>100.1220351320623</v>
       </c>
       <c r="L12" t="n">
         <v>181.4168776728891</v>
@@ -35498,16 +35498,16 @@
         <v>448.4202733404287</v>
       </c>
       <c r="N12" t="n">
-        <v>251.9322116757095</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="O12" t="n">
-        <v>448.4202733404287</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P12" t="n">
-        <v>147.4296650425612</v>
+        <v>147.4296650425611</v>
       </c>
       <c r="Q12" t="n">
-        <v>48.12939603629388</v>
+        <v>103.2476740825828</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>310.6722701440843</v>
       </c>
       <c r="N13" t="n">
-        <v>310.6156487377382</v>
+        <v>310.6156487377381</v>
       </c>
       <c r="O13" t="n">
         <v>276.6361210566988</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>52.7183324177804</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K14" t="n">
-        <v>454.4075555788177</v>
+        <v>197.4716123846505</v>
       </c>
       <c r="L14" t="n">
-        <v>283.123094743025</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M14" t="n">
-        <v>652.1659613023897</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N14" t="n">
         <v>262.0361442985892</v>
       </c>
       <c r="O14" t="n">
-        <v>614.763520997653</v>
+        <v>233.9633397349076</v>
       </c>
       <c r="P14" t="n">
-        <v>164.8328017134471</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R14" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K15" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L15" t="n">
-        <v>377.7005759719081</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M15" t="n">
-        <v>652.1659613023897</v>
+        <v>342.9315771988926</v>
       </c>
       <c r="N15" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O15" t="n">
-        <v>601.8868364329326</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P15" t="n">
-        <v>147.4296650425612</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.4117919595483</v>
+        <v>71.41179195954827</v>
       </c>
       <c r="K16" t="n">
         <v>198.6926970043453</v>
@@ -35814,16 +35814,16 @@
         <v>310.6722701440843</v>
       </c>
       <c r="N16" t="n">
-        <v>310.6156487377382</v>
+        <v>310.6156487377381</v>
       </c>
       <c r="O16" t="n">
         <v>276.6361210566988</v>
       </c>
       <c r="P16" t="n">
-        <v>224.1260564259431</v>
+        <v>224.126056425943</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314877</v>
+        <v>94.71490620314874</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K17" t="n">
-        <v>454.4075555788177</v>
+        <v>234.3326456723556</v>
       </c>
       <c r="L17" t="n">
-        <v>616.5374284452645</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M17" t="n">
-        <v>253.2774380536013</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N17" t="n">
         <v>262.0361442985892</v>
       </c>
       <c r="O17" t="n">
-        <v>233.9633397349077</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P17" t="n">
-        <v>229.6955666907624</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q17" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R17" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K18" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L18" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M18" t="n">
-        <v>231.2573314561482</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N18" t="n">
-        <v>570.3776982305611</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O18" t="n">
-        <v>601.8868364329326</v>
+        <v>319.6987628989475</v>
       </c>
       <c r="P18" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L19" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M19" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N19" t="n">
-        <v>233.1920867546439</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O19" t="n">
         <v>199.2125590736046</v>
@@ -36060,7 +36060,7 @@
         <v>146.7024944428488</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>52.7183324177804</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K20" t="n">
         <v>130.2621430076529</v>
       </c>
       <c r="L20" t="n">
-        <v>616.5374284452645</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M20" t="n">
-        <v>253.2774380536013</v>
+        <v>652.1659613023895</v>
       </c>
       <c r="N20" t="n">
-        <v>652.1659613023897</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O20" t="n">
-        <v>614.763520997653</v>
+        <v>459.5410495420593</v>
       </c>
       <c r="P20" t="n">
-        <v>187.4656516749153</v>
+        <v>164.832801713447</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.12322945970001</v>
+        <v>75.12322945969996</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K21" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L21" t="n">
-        <v>181.4168776728891</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M21" t="n">
-        <v>652.1659613023897</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N21" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O21" t="n">
-        <v>269.6304783561648</v>
+        <v>319.6987628989475</v>
       </c>
       <c r="P21" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q21" t="n">
-        <v>258.206683772143</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L22" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M22" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N22" t="n">
-        <v>233.1920867546439</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O22" t="n">
         <v>199.2125590736046</v>
@@ -36297,7 +36297,7 @@
         <v>146.7024944428488</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K23" t="n">
-        <v>130.2621430076529</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L23" t="n">
-        <v>616.5374284452645</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M23" t="n">
-        <v>261.4854343393363</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N23" t="n">
         <v>262.0361442985892</v>
       </c>
       <c r="O23" t="n">
-        <v>614.763520997653</v>
+        <v>394.6886110911919</v>
       </c>
       <c r="P23" t="n">
-        <v>164.8328017134471</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q23" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R23" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K24" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L24" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M24" t="n">
-        <v>267.5320265621004</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N24" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O24" t="n">
-        <v>601.8868364329326</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P24" t="n">
-        <v>147.4296650425612</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q24" t="n">
-        <v>258.206683772143</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L25" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M25" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N25" t="n">
-        <v>233.1920867546439</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O25" t="n">
         <v>199.2125590736046</v>
@@ -36534,7 +36534,7 @@
         <v>146.7024944428488</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K26" t="n">
-        <v>398.7611393385004</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L26" t="n">
-        <v>198.876213894814</v>
+        <v>467.3752102256629</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7909715464338</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N26" t="n">
-        <v>699.3830687105734</v>
+        <v>699.3830687105733</v>
       </c>
       <c r="O26" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P26" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q26" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R26" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K27" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5343864549415</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M27" t="n">
-        <v>231.2573314561482</v>
+        <v>342.9315771988933</v>
       </c>
       <c r="N27" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O27" t="n">
-        <v>601.8868364329326</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P27" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q27" t="n">
-        <v>258.206683772143</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.96788811211118</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K28" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L28" t="n">
-        <v>291.249707140733</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M28" t="n">
         <v>313.2283662966472</v>
       </c>
       <c r="N28" t="n">
-        <v>313.1717448903011</v>
+        <v>313.1717448903009</v>
       </c>
       <c r="O28" t="n">
         <v>279.1922172092617</v>
       </c>
       <c r="P28" t="n">
-        <v>226.682152578506</v>
+        <v>226.6821525785059</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27100235571166</v>
+        <v>97.27100235571163</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K29" t="n">
-        <v>302.8986329595323</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L29" t="n">
-        <v>616.5374284452645</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M29" t="n">
-        <v>702.7909715464338</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3830687105734</v>
+        <v>675.5889714126395</v>
       </c>
       <c r="O29" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P29" t="n">
-        <v>164.8328017134471</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q29" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R29" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K30" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L30" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M30" t="n">
-        <v>231.2573314561482</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N30" t="n">
-        <v>628.0716944310325</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O30" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989481</v>
       </c>
       <c r="P30" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.206683772143</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.96788811211118</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K31" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L31" t="n">
-        <v>291.249707140733</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M31" t="n">
         <v>313.2283662966472</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1717448903011</v>
+        <v>313.1717448903009</v>
       </c>
       <c r="O31" t="n">
         <v>279.1922172092617</v>
       </c>
       <c r="P31" t="n">
-        <v>226.682152578506</v>
+        <v>226.6821525785059</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.27100235571166</v>
+        <v>97.27100235571163</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K32" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L32" t="n">
-        <v>616.5374284452645</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M32" t="n">
-        <v>666.8302651676503</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N32" t="n">
-        <v>262.0361442985892</v>
+        <v>675.5889714126395</v>
       </c>
       <c r="O32" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P32" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q32" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K33" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L33" t="n">
-        <v>319.517590714376</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M33" t="n">
-        <v>696.9623952061481</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N33" t="n">
-        <v>731.274586019263</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O33" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989481</v>
       </c>
       <c r="P33" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q33" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.9678881121112</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K34" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L34" t="n">
-        <v>291.249707140733</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M34" t="n">
         <v>313.2283662966472</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1717448903006</v>
+        <v>313.1717448903008</v>
       </c>
       <c r="O34" t="n">
         <v>279.1922172092617</v>
       </c>
       <c r="P34" t="n">
-        <v>226.682152578506</v>
+        <v>226.6821525785059</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.27100235571167</v>
+        <v>97.27100235571163</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K35" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L35" t="n">
-        <v>420.7967426227719</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7909715464338</v>
+        <v>294.7352950640361</v>
       </c>
       <c r="N35" t="n">
         <v>262.0361442985892</v>
@@ -37321,13 +37321,13 @@
         <v>614.763520997653</v>
       </c>
       <c r="P35" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q35" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R35" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K36" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L36" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M36" t="n">
-        <v>342.9315771988926</v>
+        <v>342.9315771988935</v>
       </c>
       <c r="N36" t="n">
-        <v>251.9322116757095</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O36" t="n">
-        <v>208.024517156203</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P36" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q36" t="n">
-        <v>258.206683772143</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L37" t="n">
-        <v>239.6095556584765</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M37" t="n">
-        <v>337.5410516432174</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N37" t="n">
-        <v>233.1920867546439</v>
+        <v>337.4844302368711</v>
       </c>
       <c r="O37" t="n">
-        <v>303.5049025558319</v>
+        <v>303.5049025558318</v>
       </c>
       <c r="P37" t="n">
-        <v>146.7024944428488</v>
+        <v>175.0420010962505</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K38" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L38" t="n">
-        <v>616.5374284452645</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M38" t="n">
-        <v>253.2774380536013</v>
+        <v>294.735295064037</v>
       </c>
       <c r="N38" t="n">
-        <v>303.4940013090248</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O38" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P38" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q38" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R38" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K39" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L39" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M39" t="n">
-        <v>231.2573314561482</v>
+        <v>342.9315771988935</v>
       </c>
       <c r="N39" t="n">
-        <v>731.274586019263</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O39" t="n">
-        <v>601.8868364329326</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P39" t="n">
-        <v>304.9955458937963</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q39" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>98.28057345868135</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>121.2691350212511</v>
+        <v>121.269135021251</v>
       </c>
       <c r="L40" t="n">
-        <v>315.5623924873032</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M40" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N40" t="n">
-        <v>233.1920867546439</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O40" t="n">
-        <v>199.2125590736046</v>
+        <v>227.5520657270061</v>
       </c>
       <c r="P40" t="n">
-        <v>146.7024944428488</v>
+        <v>250.9948379250761</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.64262089700133</v>
+        <v>121.5836877022818</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K41" t="n">
-        <v>130.2621430076529</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L41" t="n">
-        <v>567.936838462436</v>
+        <v>616.5374284452644</v>
       </c>
       <c r="M41" t="n">
-        <v>253.2774380536013</v>
+        <v>253.2774380536012</v>
       </c>
       <c r="N41" t="n">
-        <v>699.3830687105734</v>
+        <v>303.4940013090242</v>
       </c>
       <c r="O41" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P41" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q41" t="n">
-        <v>287.4382201196047</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K42" t="n">
-        <v>100.1220351320623</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L42" t="n">
-        <v>552.2572229763483</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M42" t="n">
-        <v>656.5944962437039</v>
+        <v>342.9315771988935</v>
       </c>
       <c r="N42" t="n">
-        <v>731.274586019263</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O42" t="n">
-        <v>208.024517156203</v>
+        <v>208.0245171562029</v>
       </c>
       <c r="P42" t="n">
-        <v>147.4296650425612</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q42" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>98.28057345868135</v>
       </c>
       <c r="K43" t="n">
-        <v>121.2691350212511</v>
+        <v>225.5614785034784</v>
       </c>
       <c r="L43" t="n">
-        <v>211.2700490050758</v>
+        <v>245.6213256820226</v>
       </c>
       <c r="M43" t="n">
-        <v>261.5882148143931</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N43" t="n">
-        <v>337.484430236871</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O43" t="n">
         <v>199.2125590736046</v>
       </c>
       <c r="P43" t="n">
-        <v>250.994837925076</v>
+        <v>146.7024944428488</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.29134422005451</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>221.8149475898542</v>
+        <v>221.8149475898541</v>
       </c>
       <c r="K44" t="n">
-        <v>454.4075555788177</v>
+        <v>454.4075555788176</v>
       </c>
       <c r="L44" t="n">
-        <v>616.5374284452645</v>
+        <v>198.8762138948139</v>
       </c>
       <c r="M44" t="n">
-        <v>702.7909715464338</v>
+        <v>702.7909715464336</v>
       </c>
       <c r="N44" t="n">
-        <v>447.0956397388423</v>
+        <v>271.6416823666421</v>
       </c>
       <c r="O44" t="n">
-        <v>233.9633397349077</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P44" t="n">
-        <v>486.6315098849297</v>
+        <v>486.6315098849296</v>
       </c>
       <c r="Q44" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196046</v>
       </c>
       <c r="R44" t="n">
-        <v>23.14306484755537</v>
+        <v>23.14306484755534</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>138.4817867525216</v>
+        <v>138.4817867525215</v>
       </c>
       <c r="K45" t="n">
         <v>364.5872721446409</v>
       </c>
       <c r="L45" t="n">
-        <v>181.4168776728891</v>
+        <v>552.2572229763482</v>
       </c>
       <c r="M45" t="n">
-        <v>696.9623952061481</v>
+        <v>231.2573314561481</v>
       </c>
       <c r="N45" t="n">
-        <v>478.8190267077625</v>
+        <v>251.9322116757094</v>
       </c>
       <c r="O45" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989484</v>
       </c>
       <c r="P45" t="n">
         <v>465.8924336824983</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.12939603629388</v>
+        <v>258.2066837721429</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>98.28057345868132</v>
       </c>
       <c r="K46" t="n">
         <v>225.5614785034783</v>
       </c>
       <c r="L46" t="n">
-        <v>211.2700490050758</v>
+        <v>245.6213256820234</v>
       </c>
       <c r="M46" t="n">
-        <v>233.2487081609901</v>
+        <v>233.24870816099</v>
       </c>
       <c r="N46" t="n">
-        <v>233.1920867546439</v>
+        <v>233.1920867546438</v>
       </c>
       <c r="O46" t="n">
-        <v>303.5049025558318</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P46" t="n">
         <v>146.7024944428488</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.630850873456</v>
+        <v>17.2913442200545</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
